--- a/functions/report.xlsx
+++ b/functions/report.xlsx
@@ -11,39 +11,2352 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Full Report</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="782">
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Client Email</t>
   </si>
   <si>
+    <t>Client Id</t>
+  </si>
+  <si>
     <t>CPF</t>
   </si>
   <si>
+    <t>Current Balance</t>
+  </si>
+  <si>
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Third Party User</t>
+    <t>Device Spent</t>
   </si>
   <si>
     <t>Spent</t>
   </si>
   <si>
-    <t>Current Balance</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
     <t>12/2019</t>
   </si>
   <si>
     <t>01/2020</t>
   </si>
   <si>
-    <t>victor.assis.alves@gmail.com</t>
+    <t>Device - 01/2020</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>hsuchoa@gmail.com</t>
+  </si>
+  <si>
+    <t>00a95c9cd05d7b346d6f877afe14fcc4</t>
+  </si>
+  <si>
+    <t>37572580106</t>
+  </si>
+  <si>
+    <t>d3b26f4915b5632fdc5c13d8d7356adb</t>
+  </si>
+  <si>
+    <t>erleybrasil@gmail.com</t>
+  </si>
+  <si>
+    <t>010e9fb453e75ab4f9e77f56307c704e</t>
+  </si>
+  <si>
+    <t>80826016120</t>
+  </si>
+  <si>
+    <t>a580c596a0939300f33ff73f84cfccf4</t>
+  </si>
+  <si>
+    <t>alexismkt@outlook.com</t>
+  </si>
+  <si>
+    <t>011a27ec4255f1fe4152e292ed67758a</t>
+  </si>
+  <si>
+    <t>06980835718</t>
+  </si>
+  <si>
+    <t>530303ac56f23baefe9e14e3e7a2b92c</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>a7aecf4397e3d6c9005bcd22e906bf18</t>
+  </si>
+  <si>
+    <t>lrcorrea@gmail.com</t>
+  </si>
+  <si>
+    <t>01cd320f3ed6c8c157dd9dc72117c26d</t>
+  </si>
+  <si>
+    <t>26542253807</t>
+  </si>
+  <si>
+    <t>98ed14187692804812717ce737dbd5bf</t>
+  </si>
+  <si>
+    <t>richardassef_@hotmail.com</t>
+  </si>
+  <si>
+    <t>03b513509d4876c76c5d20210f9d5412</t>
+  </si>
+  <si>
+    <t>22282834879</t>
+  </si>
+  <si>
+    <t>88304e1cc285bb9a28efcdab22b37e70</t>
+  </si>
+  <si>
+    <t>brother_leo@hotmail.com</t>
+  </si>
+  <si>
+    <t>0465d3d3489f4673d727d880fd3718e2</t>
+  </si>
+  <si>
+    <t>01345801688</t>
+  </si>
+  <si>
+    <t>9afdb91433c5fcd361b4cecdee2e4ce8</t>
+  </si>
+  <si>
+    <t>rogerioschwaab@hotmail.com</t>
+  </si>
+  <si>
+    <t>049e9509aa9a6e85f7e0683f8a7f64ec</t>
+  </si>
+  <si>
+    <t>62926780915</t>
+  </si>
+  <si>
+    <t>32df1cfc59cf972abf5eb4972ca525ea</t>
+  </si>
+  <si>
+    <t>bruna.brito@portalformar.com.br</t>
+  </si>
+  <si>
+    <t>04d9aa40b95be39a286c0b34635d8d70</t>
+  </si>
+  <si>
+    <t>8f4d12da6ff540a18a87228091dea109</t>
+  </si>
+  <si>
+    <t>thiagoj_marques@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>0528fbe0672bb04469966582117fcbda</t>
+  </si>
+  <si>
+    <t>06116447970</t>
+  </si>
+  <si>
+    <t>c3ddba0f457c6de46850f4c4686a5423</t>
+  </si>
+  <si>
+    <t>jdmvps@gmail.com</t>
+  </si>
+  <si>
+    <t>089dbaa046cb57d32ae142685a191c9c</t>
+  </si>
+  <si>
+    <t>41715796861</t>
+  </si>
+  <si>
+    <t>c7141db4dffc8419e024d489cd60f77b</t>
+  </si>
+  <si>
+    <t>bruno.exterior@hotmail.com</t>
+  </si>
+  <si>
+    <t>0abbd71dc8cb07b7edbb3d33beab37ac</t>
+  </si>
+  <si>
+    <t>12347199757</t>
+  </si>
+  <si>
+    <t>16dd9e8866a448fddd402d5d2b0a88dc</t>
+  </si>
+  <si>
+    <t>gustavo.demichele@hotmail.com</t>
+  </si>
+  <si>
+    <t>0c83d0d6012bd77b0ade1b591ca6ab38</t>
+  </si>
+  <si>
+    <t>45386055810</t>
+  </si>
+  <si>
+    <t>efb299147725648e1e1eb7cace5c7f9a</t>
+  </si>
+  <si>
+    <t>jpmotta@icloud.com</t>
+  </si>
+  <si>
+    <t>0cbc95203641381fa019bddc43dea829</t>
+  </si>
+  <si>
+    <t>28186118810</t>
+  </si>
+  <si>
+    <t>d90f320c1c395348cfe5875b025f51be</t>
+  </si>
+  <si>
+    <t>ewichrowski@gmail.com</t>
+  </si>
+  <si>
+    <t>0d2a20439c90b7e4a0a19cb3591b639e</t>
+  </si>
+  <si>
+    <t>95751807715</t>
+  </si>
+  <si>
+    <t>1c9a591f785d4392e54d6e8633dd8752</t>
+  </si>
+  <si>
+    <t>maxcvv1@gmail.com</t>
+  </si>
+  <si>
+    <t>0d9e9b375db267945360635153ff4f2a</t>
+  </si>
+  <si>
+    <t>51328780082</t>
+  </si>
+  <si>
+    <t>c1fe99b0314ee9db5663718ff2445dac</t>
+  </si>
+  <si>
+    <t>mariajose.dasilva059@gmail.com</t>
+  </si>
+  <si>
+    <t>0f2bd22572cbad36bdb76de659a5d448</t>
+  </si>
+  <si>
+    <t>41020758104</t>
+  </si>
+  <si>
+    <t>403ce6136938a02658e524f747e67955</t>
+  </si>
+  <si>
+    <t>edsontk@outlook.com</t>
+  </si>
+  <si>
+    <t>0fbb49155646d1c30487e6b2d9d17a93</t>
+  </si>
+  <si>
+    <t>12556294795</t>
+  </si>
+  <si>
+    <t>dcb1927d680c28971f32d7bd41986e35</t>
+  </si>
+  <si>
+    <t>w.zambiazzi@gmail.com</t>
+  </si>
+  <si>
+    <t>10a59e7e6c7dc308c404f4c742a6ba42</t>
+  </si>
+  <si>
+    <t>05161923962</t>
+  </si>
+  <si>
+    <t>66645ebf5536d04ad8a3b5d644e72330</t>
+  </si>
+  <si>
+    <t>elias.fsabia@gmail.com</t>
+  </si>
+  <si>
+    <t>122274c1ebe07cab106c001991925457</t>
+  </si>
+  <si>
+    <t>00725955155</t>
+  </si>
+  <si>
+    <t>cfe120d77e3bfe3303de85d7a07f5718</t>
+  </si>
+  <si>
+    <t>eng.yuricosta@gmail.com</t>
+  </si>
+  <si>
+    <t>12a1d48bfb6b2e2198f5d306de180597</t>
+  </si>
+  <si>
+    <t>10147498678</t>
+  </si>
+  <si>
+    <t>f180da8f0667a06c872b15a46b5f514d</t>
+  </si>
+  <si>
+    <t>renatoalvesmanuli@hotmail.com</t>
+  </si>
+  <si>
+    <t>13f6247dea917b4426c9b29883c4dd9b</t>
+  </si>
+  <si>
+    <t>27872103842</t>
+  </si>
+  <si>
+    <t>45ea5073d96e433405d25822fe6c0955</t>
+  </si>
+  <si>
+    <t>budicaro@gmail.com</t>
+  </si>
+  <si>
+    <t>14613972a0ca77b1152244f16d462a7b</t>
+  </si>
+  <si>
+    <t>84785730030</t>
+  </si>
+  <si>
+    <t>01418ecc15f516e97247daa00dec4733</t>
+  </si>
+  <si>
+    <t>faf-2@hotmail.com</t>
+  </si>
+  <si>
+    <t>154aa2fd361ee7c77fd4c45ed0701690</t>
+  </si>
+  <si>
+    <t>07668032606</t>
+  </si>
+  <si>
+    <t>14375613013c05b58375809a6d1019da</t>
+  </si>
+  <si>
+    <t>andrer.quintanilha@gmail.com</t>
+  </si>
+  <si>
+    <t>155b84d6b0c5094c4f777dba6278df5c</t>
+  </si>
+  <si>
+    <t>02425124020</t>
+  </si>
+  <si>
+    <t>7d96bd69b780b35d796fa4312beafe97</t>
+  </si>
+  <si>
+    <t>leonardo.francescantonio@gmail.com</t>
+  </si>
+  <si>
+    <t>1585622215a4181257bcbf84fd80685d</t>
+  </si>
+  <si>
+    <t>35585217810</t>
+  </si>
+  <si>
+    <t>a8235ac403e98ab7fccfd98590f0b45d</t>
+  </si>
+  <si>
+    <t>edson_miguel2006@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>1820b87aee0e3c20bb793da4f4e74974</t>
+  </si>
+  <si>
+    <t>09893855748</t>
+  </si>
+  <si>
+    <t>be03ca151d07d7409552d8d5605e28c1</t>
+  </si>
+  <si>
+    <t>am.schn@gmail.com</t>
+  </si>
+  <si>
+    <t>1897f86a35e6d404481c6e21345e849a</t>
+  </si>
+  <si>
+    <t>88011666568</t>
+  </si>
+  <si>
+    <t>43d18b1a046787de9858b040d1b2f0cd</t>
+  </si>
+  <si>
+    <t>thiago.cunha.pssl@gmail.com</t>
+  </si>
+  <si>
+    <t>1b147bdbe3b232cab1d70f6e5129cfad</t>
+  </si>
+  <si>
+    <t>01435034139</t>
+  </si>
+  <si>
+    <t>00cc3e24e49a29a6e6a1a7e3ab89df99</t>
+  </si>
+  <si>
+    <t>bernardo.am@hotmail.com</t>
+  </si>
+  <si>
+    <t>1d4297ac2571ad51a17a986f809f4519</t>
+  </si>
+  <si>
+    <t>65639960272</t>
+  </si>
+  <si>
+    <t>a46adb79ce7a37440b913800532bda64</t>
+  </si>
+  <si>
+    <t>itamarsantiago@hotmail.com</t>
+  </si>
+  <si>
+    <t>21e3b8c254ed28da649b9fa5b051913f</t>
+  </si>
+  <si>
+    <t>11375400100</t>
+  </si>
+  <si>
+    <t>98cb0ace44027b2affc25b7f62b32319</t>
+  </si>
+  <si>
+    <t>andersonpedrodasilva@gmail.com</t>
+  </si>
+  <si>
+    <t>24b02329e9a456643ae322ab8318570f</t>
+  </si>
+  <si>
+    <t>29750700805</t>
+  </si>
+  <si>
+    <t>6074c5199e47e0a1afd1989d659404cb</t>
+  </si>
+  <si>
+    <t>leonovacap@hotmail.com</t>
+  </si>
+  <si>
+    <t>27bf00499eaa52422fe5de41a9b2f411</t>
+  </si>
+  <si>
+    <t>63634910100</t>
+  </si>
+  <si>
+    <t>c5b5999ace1df72f1a57e6cd9397f0c8</t>
+  </si>
+  <si>
+    <t>ushavelasco@gmail.com</t>
+  </si>
+  <si>
+    <t>2afd0a91d7f6d2be56bdbab84c9101c4</t>
+  </si>
+  <si>
+    <t>46205977168</t>
+  </si>
+  <si>
+    <t>f9a0a8802a0cc85caae5687d7b312e76</t>
+  </si>
+  <si>
+    <t>cmontanow@gmail.com</t>
+  </si>
+  <si>
+    <t>2cd2cbae51806cf1f0ded8cd628f3e77</t>
+  </si>
+  <si>
+    <t>80518923053</t>
+  </si>
+  <si>
+    <t>47fdddc0be5a577dd398e019158ca87e</t>
+  </si>
+  <si>
+    <t>eng.vitor.carolo@gmail.com</t>
+  </si>
+  <si>
+    <t>2e041a975718c5f62dd7a7b0dcdb0bad</t>
+  </si>
+  <si>
+    <t>12409104797</t>
+  </si>
+  <si>
+    <t>9f1feac639098e52438d0b5d94f5f52e</t>
+  </si>
+  <si>
+    <t>sosmuniz@hotmail.com</t>
+  </si>
+  <si>
+    <t>30025f77989fc62fb7c02cda2618948c</t>
+  </si>
+  <si>
+    <t>12105645720</t>
+  </si>
+  <si>
+    <t>4dbe9fa61cb7ff978ccb8b1afecd60ff</t>
+  </si>
+  <si>
+    <t>liderjulianodf@gmail.com</t>
+  </si>
+  <si>
+    <t>31e37e0fabda990b0f15bd2988b654de</t>
+  </si>
+  <si>
+    <t>00095914196</t>
+  </si>
+  <si>
+    <t>19081da180be12e8ae66c67d2e14caa4</t>
+  </si>
+  <si>
+    <t>leonardor.azevedo@gmail.com</t>
+  </si>
+  <si>
+    <t>3236f537e53e77ddcfc3c354d6d59120</t>
+  </si>
+  <si>
+    <t>61116262134</t>
+  </si>
+  <si>
+    <t>9b01e10ecdb79964c5cdea2e92d10b96</t>
+  </si>
+  <si>
+    <t>kushimamau@hotmail.com</t>
+  </si>
+  <si>
+    <t>32b0ba9b999bcda789539c5a6fca8039</t>
+  </si>
+  <si>
+    <t>81645970906</t>
+  </si>
+  <si>
+    <t>523d796978fac93852fa50467549ee71</t>
+  </si>
+  <si>
+    <t>de8751b4eb490ec8f97fedec9a204c21</t>
+  </si>
+  <si>
+    <t>mvloro@gmail.com</t>
+  </si>
+  <si>
+    <t>32c1f497b8b12f4238a03517d64b7c11</t>
+  </si>
+  <si>
+    <t>21846904811</t>
+  </si>
+  <si>
+    <t>8b2e3388797ce371e1ec1759f7cfdffd</t>
+  </si>
+  <si>
+    <t>rafhfernandes@gmail.com</t>
+  </si>
+  <si>
+    <t>3854cfdf40de29e11883871dc6221788</t>
+  </si>
+  <si>
+    <t>36942277843</t>
+  </si>
+  <si>
+    <t>28bc58724a4c71dc5a851fce64318521</t>
+  </si>
+  <si>
+    <t>matheussilva.r20@gmail.com</t>
+  </si>
+  <si>
+    <t>394d2a4e4029852e0be6c11a02193465</t>
+  </si>
+  <si>
+    <t>45581265810</t>
+  </si>
+  <si>
+    <t>527adad9190d7dc576f6a7a8324a75f9</t>
+  </si>
+  <si>
+    <t>leandropgml@gmail.com</t>
+  </si>
+  <si>
+    <t>3a63371e248d0bb70af3c5b6f424d5ea</t>
+  </si>
+  <si>
+    <t>76682897715</t>
+  </si>
+  <si>
+    <t>65dade2267d22119fa343cb2403d70b7</t>
+  </si>
+  <si>
+    <t>paulogwsa@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>3b842438ee112d2ff464ce5f44c9949c</t>
+  </si>
+  <si>
+    <t>62521934372</t>
+  </si>
+  <si>
+    <t>2dd71f950342e94d2d92ea28c3f0bace</t>
+  </si>
+  <si>
+    <t>ruibrag@hotmail.com</t>
+  </si>
+  <si>
+    <t>3eae865c3e1846bfd528643485c0cfe3</t>
+  </si>
+  <si>
+    <t>03395942767</t>
+  </si>
+  <si>
+    <t>0424fbe8beedbbc0e776b5edfdbf28b6</t>
+  </si>
+  <si>
+    <t>gladson.santos@gmail.com</t>
+  </si>
+  <si>
+    <t>3f2b1df87da41fb84de5e6f0c97041b2</t>
+  </si>
+  <si>
+    <t>03392508608</t>
+  </si>
+  <si>
+    <t>ef02c9a7f8ea1c56b03a541d888e90bc</t>
+  </si>
+  <si>
+    <t>marciojresende@hotmail.com</t>
+  </si>
+  <si>
+    <t>428283f68f131ae73e8573338e79b68e</t>
+  </si>
+  <si>
+    <t>80891470620</t>
+  </si>
+  <si>
+    <t>a2359717a767b30adfd9c1bb73140dd3</t>
+  </si>
+  <si>
+    <t>reismagnoleal@gmail.com</t>
+  </si>
+  <si>
+    <t>4347c95855dd94d970c3ae18ea02756c</t>
+  </si>
+  <si>
+    <t>79067476315</t>
+  </si>
+  <si>
+    <t>02bece9d4e5bd5282d22f1678750c86e</t>
+  </si>
+  <si>
+    <t>valde48@globo.com</t>
+  </si>
+  <si>
+    <t>43f0d80924aef286a8b5fb752d7c9bab</t>
+  </si>
+  <si>
+    <t>11332549187</t>
+  </si>
+  <si>
+    <t>8fd0456505b55074676fe7b960e9ece2</t>
+  </si>
+  <si>
+    <t>flavio@flavioqueiroz.com.br</t>
+  </si>
+  <si>
+    <t>4575a67907503de1a01f03c50e916645</t>
+  </si>
+  <si>
+    <t>06455182804</t>
+  </si>
+  <si>
+    <t>23fe20b51aba58de8e4d2572223b89e9</t>
+  </si>
+  <si>
+    <t>leomkx@gmail.com</t>
+  </si>
+  <si>
+    <t>460e5163fe23c6ab2c3c8bb7cf105309</t>
+  </si>
+  <si>
+    <t>25398590898</t>
+  </si>
+  <si>
+    <t>6da84089134a7019cfcc2be92e56b346</t>
+  </si>
+  <si>
+    <t>ferrazjunior62@gmail.com</t>
+  </si>
+  <si>
+    <t>475b8a46a5d41426c0aa9a34db9d6ed2</t>
+  </si>
+  <si>
+    <t>29211085420</t>
+  </si>
+  <si>
+    <t>8a86d2c122338c77054a780803c8d858</t>
+  </si>
+  <si>
+    <t>gracielecristina@gmail.com</t>
+  </si>
+  <si>
+    <t>496b5f446922882b50c173fd17e3f74b</t>
+  </si>
+  <si>
+    <t>06538668607</t>
+  </si>
+  <si>
+    <t>ef44f0bb21af05add7c50815f1a1b85c</t>
+  </si>
+  <si>
+    <t>davidipietro@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>4a11d1f18a395831c2f4062bbdc6954b</t>
+  </si>
+  <si>
+    <t>31191643808</t>
+  </si>
+  <si>
+    <t>a7c8b878a74f102107bdadba8960abd0</t>
+  </si>
+  <si>
+    <t>eksanches@gmail.com</t>
+  </si>
+  <si>
+    <t>4a384b38b2c8bb4b600caad67e5c9f48</t>
+  </si>
+  <si>
+    <t>17914999881</t>
+  </si>
+  <si>
+    <t>0f7cbc12587503c8cbece21ab3b5e455</t>
+  </si>
+  <si>
+    <t>alex.graxtub@gmail.com</t>
+  </si>
+  <si>
+    <t>4d70e6e39900db6aa72ba7a074122027</t>
+  </si>
+  <si>
+    <t>09671652700</t>
+  </si>
+  <si>
+    <t>865dead39f5190f379f308f553be0a2c</t>
+  </si>
+  <si>
+    <t>quintorey@gmail.com</t>
+  </si>
+  <si>
+    <t>50353abf8ef9133f026c44db6a565c0d</t>
+  </si>
+  <si>
+    <t>06105539762</t>
+  </si>
+  <si>
+    <t>cc278f993e4ca159eb3e640ad619313b</t>
+  </si>
+  <si>
+    <t>fernando_raizaro@hotmail.com</t>
+  </si>
+  <si>
+    <t>51e9d9c6fb1f2ada4979c0a9b982733e</t>
+  </si>
+  <si>
+    <t>22463435852</t>
+  </si>
+  <si>
+    <t>f19d92bda6850a99d918d2f0874650e9</t>
+  </si>
+  <si>
+    <t>pedropaulo@tempro.com.br</t>
+  </si>
+  <si>
+    <t>52f334a11ba303687ff3cabd2b3d6976</t>
+  </si>
+  <si>
+    <t>00298370735</t>
+  </si>
+  <si>
+    <t>abb1ea122261ed5978468f7eaabd0f1f</t>
+  </si>
+  <si>
+    <t>eduardodiniz@gmail.com</t>
+  </si>
+  <si>
+    <t>546ea7d675068553c108c94bac8402b6</t>
+  </si>
+  <si>
+    <t>05857019621</t>
+  </si>
+  <si>
+    <t>634579974e2cd8d04258d505dc5b8b92</t>
+  </si>
+  <si>
+    <t>pedro-rubio2503@hotmail.com</t>
+  </si>
+  <si>
+    <t>56315d9849d128af115b9d880711f351</t>
+  </si>
+  <si>
+    <t>42527101895</t>
+  </si>
+  <si>
+    <t>5e6110a3a66c3a65a1517d81220599c3</t>
+  </si>
+  <si>
+    <t>paulo.henrique.will@gmail.com</t>
+  </si>
+  <si>
+    <t>57e589bf26427fbcf35209a77dc8632c</t>
+  </si>
+  <si>
+    <t>34092341873</t>
+  </si>
+  <si>
+    <t>2c9adb6f8aaf88fca2eb81e88085a418</t>
+  </si>
+  <si>
+    <t>flavio.napoleao.adv@gmail.com</t>
+  </si>
+  <si>
+    <t>585eabb7b05821a65e4ed7b5f8de3fc9</t>
+  </si>
+  <si>
+    <t>48171891349</t>
+  </si>
+  <si>
+    <t>832893a2b94bd67f5178bdedd8fdb2e0</t>
+  </si>
+  <si>
+    <t>vitorhugo-94@hotmail.com</t>
+  </si>
+  <si>
+    <t>593b2c63045d8b6ec5830d989972e175</t>
+  </si>
+  <si>
+    <t>42130547800</t>
+  </si>
+  <si>
+    <t>9e345e383e242d7379e77549a81076da</t>
+  </si>
+  <si>
+    <t>jessicabafer@outlook.com</t>
+  </si>
+  <si>
+    <t>5a974750a06eb3603a00207603ed2cee</t>
+  </si>
+  <si>
+    <t>02506184198</t>
+  </si>
+  <si>
+    <t>f2eca14a2748bd8be9fa04d2d70880c8</t>
+  </si>
+  <si>
+    <t>edimarssantana@gmail.com</t>
+  </si>
+  <si>
+    <t>5b9d6ca963b7f142003ec7c19214ff4b</t>
+  </si>
+  <si>
+    <t>60613041100</t>
+  </si>
+  <si>
+    <t>337848ca0ca491c3b1d122a318641fbf</t>
+  </si>
+  <si>
+    <t>eaabaf494255261f5fbc76bd51e2b5dd</t>
+  </si>
+  <si>
+    <t>joneycollin@hotmail.com</t>
+  </si>
+  <si>
+    <t>5c5fc64ba4b853ae0d7ca50bac452dc6</t>
+  </si>
+  <si>
+    <t>12190427738</t>
+  </si>
+  <si>
+    <t>73343b5ab0e0b3e6798adef58bb3bf45</t>
+  </si>
+  <si>
+    <t>cinthia.selman@gmail.com</t>
+  </si>
+  <si>
+    <t>5db5ff83639556fcf717ff728a13d2b7</t>
+  </si>
+  <si>
+    <t>30752204858</t>
+  </si>
+  <si>
+    <t>776b9f1ed1840b92e94940ac24f20ddf</t>
+  </si>
+  <si>
+    <t>fernandopcf@gmail.com</t>
+  </si>
+  <si>
+    <t>5f1fe029113073eac328a6cef7bc58b4</t>
+  </si>
+  <si>
+    <t>51824116349</t>
+  </si>
+  <si>
+    <t>301a2cfa65b10314e4c2eefa13b0886c</t>
+  </si>
+  <si>
+    <t>evertonsouza89@gmail.com</t>
+  </si>
+  <si>
+    <t>629ea97c28e1da92c054aa50e552ff79</t>
+  </si>
+  <si>
+    <t>01811032060</t>
+  </si>
+  <si>
+    <t>a62898e75b38f7da38c3ed9f6603bcd2</t>
+  </si>
+  <si>
+    <t>jddc.dias@gmail.com</t>
+  </si>
+  <si>
+    <t>65707fa014c7edc53ac66078f0b5f24a</t>
+  </si>
+  <si>
+    <t>97707775287</t>
+  </si>
+  <si>
+    <t>c12e7cb76a170dda4ef6a754951578e0</t>
+  </si>
+  <si>
+    <t>visalog@visalog.com</t>
+  </si>
+  <si>
+    <t>65968cf48d00647bdfd8c628f146de10</t>
+  </si>
+  <si>
+    <t>44868510487</t>
+  </si>
+  <si>
+    <t>e0d7866dd307f2ecff4dbcc3160d8f79</t>
+  </si>
+  <si>
+    <t>vluz58@gmail.com</t>
+  </si>
+  <si>
+    <t>65bff9ed39e85bde0b2f5decc5eeb077</t>
+  </si>
+  <si>
+    <t>07466531580</t>
+  </si>
+  <si>
+    <t>a7fedafd1c68bcd113dd81cf376d89be</t>
+  </si>
+  <si>
+    <t>ricardoptexx@hotmail.com</t>
+  </si>
+  <si>
+    <t>6748bc91983f3652af8b2ba9d682a2f9</t>
+  </si>
+  <si>
+    <t>03355508519</t>
+  </si>
+  <si>
+    <t>2fecf23512d816b14e5e497ea43e353b</t>
+  </si>
+  <si>
+    <t>guilherme.corrente@terra.com.br</t>
+  </si>
+  <si>
+    <t>67d2e8c1d88ea2ed0db60f662dfc11d1</t>
+  </si>
+  <si>
+    <t>36810756892</t>
+  </si>
+  <si>
+    <t>595d793839a3f2c9f3fcdffa241b1c00</t>
+  </si>
+  <si>
+    <t>ademir.halinski@gmail.com</t>
+  </si>
+  <si>
+    <t>68b0985b1911a061b7bd887d7caf9e18</t>
+  </si>
+  <si>
+    <t>05298185908</t>
+  </si>
+  <si>
+    <t>d635f717f1ae5c7253367691ac23b6c0</t>
+  </si>
+  <si>
+    <t>wbraiti@gmail.com</t>
+  </si>
+  <si>
+    <t>69a35f4be89df9118bb426a02952e924</t>
+  </si>
+  <si>
+    <t>03850058816</t>
+  </si>
+  <si>
+    <t>d641c3bf923e3093c260abaa359488a4</t>
+  </si>
+  <si>
+    <t>omagnetico1@gmail.com</t>
+  </si>
+  <si>
+    <t>6afa1a2dfb5be0cdbf16a68cd1903776</t>
+  </si>
+  <si>
+    <t>02236270704</t>
+  </si>
+  <si>
+    <t>cb45d41d195351abe15f189a924953dc</t>
+  </si>
+  <si>
+    <t>cledsonted@gmail.com</t>
+  </si>
+  <si>
+    <t>6c951b25801a91340a9a7b0270a44abb</t>
+  </si>
+  <si>
+    <t>78896371104</t>
+  </si>
+  <si>
+    <t>eeb5c8e351823f2193a33dd6935c6ca7</t>
+  </si>
+  <si>
+    <t>fernando.bueno@gmail.com</t>
+  </si>
+  <si>
+    <t>6e193912615d8d7bb79e2e97acc357b0</t>
+  </si>
+  <si>
+    <t>27879419829</t>
+  </si>
+  <si>
+    <t>1f458c22a4085f33397c092203bd669f</t>
+  </si>
+  <si>
+    <t>israeloliveira@gmail.com</t>
+  </si>
+  <si>
+    <t>7086b86e82e3eea8837117b30871aa80</t>
+  </si>
+  <si>
+    <t>05730494670</t>
+  </si>
+  <si>
+    <t>6429761b7e003337590d67790e7fbb96</t>
+  </si>
+  <si>
+    <t>celmarializ@hotmail.com</t>
+  </si>
+  <si>
+    <t>752715b95f4d9cd01eabd74d422cfdbf</t>
+  </si>
+  <si>
+    <t>23335041968</t>
+  </si>
+  <si>
+    <t>ff82d3b6964fc22c4e5d10c829e08206</t>
+  </si>
+  <si>
+    <t>engenheirorizzi@hotmail.com</t>
+  </si>
+  <si>
+    <t>75e72d5ac9b7f5bfd771d81d5122371c</t>
+  </si>
+  <si>
+    <t>cb2ca3c5d7806b286c249e8d04cf787b</t>
+  </si>
+  <si>
+    <t>sisleysantana@gmail.com</t>
+  </si>
+  <si>
+    <t>77baa2c672a39eb5fa652d5de76e8401</t>
+  </si>
+  <si>
+    <t>50813510244</t>
+  </si>
+  <si>
+    <t>1343eac898ebc5520de1b6bb35e2a89b</t>
+  </si>
+  <si>
+    <t>dennerfcppa@gmail.com</t>
+  </si>
+  <si>
+    <t>7c90fb3f704a0702b3c789174322ba2d</t>
+  </si>
+  <si>
+    <t>35100293802</t>
+  </si>
+  <si>
+    <t>fc6233550836b076912d42ce0907e666</t>
+  </si>
+  <si>
+    <t>manuellabsv@gmail.com</t>
+  </si>
+  <si>
+    <t>7cda23191003c9323a13d45352d02e10</t>
+  </si>
+  <si>
+    <t>03598488181</t>
+  </si>
+  <si>
+    <t>01f33e336a350cce85ace9aa8df4e5b2</t>
+  </si>
+  <si>
+    <t>wandersoniprm@hotmail.com</t>
+  </si>
+  <si>
+    <t>7dc716ee8665eaf4b9088462f54da2af</t>
+  </si>
+  <si>
+    <t>22088337830</t>
+  </si>
+  <si>
+    <t>19b43b4db5dd8ec2715b40c2e052de6f</t>
+  </si>
+  <si>
+    <t>9ec622c22c4f19a99c8f2e392c2cd4de</t>
+  </si>
+  <si>
+    <t>dnival71@gmail.com</t>
+  </si>
+  <si>
+    <t>7e1a3508b615ef571991696887543c5b</t>
+  </si>
+  <si>
+    <t>15811608870</t>
+  </si>
+  <si>
+    <t>5f02f4d1f096b7e96e64e6e4508f0936</t>
+  </si>
+  <si>
+    <t>fernandosf01@gmail.com</t>
+  </si>
+  <si>
+    <t>7e2611550fb199eae653bf33dd717b64</t>
+  </si>
+  <si>
+    <t>0d09f8a57bb4d695a0a863bfe71be6da</t>
+  </si>
+  <si>
+    <t>ronaldochagas_df@hotmail.com</t>
+  </si>
+  <si>
+    <t>7e4920157b63172f7e8503a66ca871c3</t>
+  </si>
+  <si>
+    <t>78258243187</t>
+  </si>
+  <si>
+    <t>95fb6e4895bae014379f9951e46ca8a0</t>
+  </si>
+  <si>
+    <t>paulytaalmeida0310@gmail.com</t>
+  </si>
+  <si>
+    <t>823c0bdacf99732ac19cf3b9f54b26d8</t>
+  </si>
+  <si>
+    <t>02146192496</t>
+  </si>
+  <si>
+    <t>074ca84d8c4a0e8bb11ddc5d18271905</t>
+  </si>
+  <si>
+    <t>gustavog3cg@hotmail.com</t>
+  </si>
+  <si>
+    <t>82c5152790b69863a960b0b65aa8bb66</t>
+  </si>
+  <si>
+    <t>13988677728</t>
+  </si>
+  <si>
+    <t>676dc539e96e848eb939f3e6d1b3e7c6</t>
+  </si>
+  <si>
+    <t>felipemoraes.ti@outlook.com</t>
+  </si>
+  <si>
+    <t>831ba8cbc5555679baa2791876043acc</t>
+  </si>
+  <si>
+    <t>45606333805</t>
+  </si>
+  <si>
+    <t>0607bda5b1494135f99efebb3ae50a67</t>
+  </si>
+  <si>
+    <t>rairesd@outlook.com</t>
+  </si>
+  <si>
+    <t>843bb698517e69504807a8d6e2e20f8c</t>
+  </si>
+  <si>
+    <t>45564890833</t>
+  </si>
+  <si>
+    <t>9b6054139309c4388d5640ffe8efea59</t>
+  </si>
+  <si>
+    <t>ouchana@gmail.com</t>
+  </si>
+  <si>
+    <t>855d4742b7779be1afe71f48d3265914</t>
+  </si>
+  <si>
+    <t>419137a58c1025ef6b0032ff3950d3f6</t>
+  </si>
+  <si>
+    <t>leme.ribeiro21@gmail.com</t>
+  </si>
+  <si>
+    <t>86d9a54855a02a131ce3c8fd2a2fc244</t>
+  </si>
+  <si>
+    <t>07170616807</t>
+  </si>
+  <si>
+    <t>be43c83b235459a25c957ed2c38109ff</t>
+  </si>
+  <si>
+    <t>felipemac@gmail.com</t>
+  </si>
+  <si>
+    <t>880b7a1ef92bbd4259832f0de132e6a3</t>
+  </si>
+  <si>
+    <t>08257169773</t>
+  </si>
+  <si>
+    <t>bada34b65def3ed5d0a920b006e32a47</t>
+  </si>
+  <si>
+    <t>paulocesar-p1@hotmail.com</t>
+  </si>
+  <si>
+    <t>88d03734941ce45f1785c4a31992d719</t>
+  </si>
+  <si>
+    <t>06074828857</t>
+  </si>
+  <si>
+    <t>239733e17a9a390861a2fbb894ddcc4f</t>
+  </si>
+  <si>
+    <t>carlos.hmgoncalves@gmail.com</t>
+  </si>
+  <si>
+    <t>896664dccbb0b617e893fb0ab5e7192d</t>
+  </si>
+  <si>
+    <t>29135709847</t>
+  </si>
+  <si>
+    <t>d58a8c47f73cacb7f3ec1337d95f4608</t>
+  </si>
+  <si>
+    <t>flavialacerda55@gmail.com</t>
+  </si>
+  <si>
+    <t>8a238faad9baad6c13526b72dc71ee97</t>
+  </si>
+  <si>
+    <t>30068541449</t>
+  </si>
+  <si>
+    <t>a1dfe6fd5431b0be02eb1e99895ccdee</t>
+  </si>
+  <si>
+    <t>deivison.medeiros@gmail.com</t>
+  </si>
+  <si>
+    <t>8aa825f2a123b0a1166f24906bde2832</t>
+  </si>
+  <si>
+    <t>09964648758</t>
+  </si>
+  <si>
+    <t>1f7b7ddf6659e5df153d5becfc940114</t>
+  </si>
+  <si>
+    <t>valerianoalmeida@hotmail.com</t>
+  </si>
+  <si>
+    <t>8ba09c64fd2efc4f91a8022da9dd6083</t>
+  </si>
+  <si>
+    <t>59707330406</t>
+  </si>
+  <si>
+    <t>02c829fe6b9ebcb0dd758c938249fcdb</t>
+  </si>
+  <si>
+    <t>f99ce99eb2b52d89f7c047e196a66844</t>
+  </si>
+  <si>
+    <t>thiagothithas@gmail.com</t>
+  </si>
+  <si>
+    <t>8ca0d4f9267351cf62cac07ca67e7059</t>
+  </si>
+  <si>
+    <t>94270732091</t>
+  </si>
+  <si>
+    <t>301000bf751deaf40f3d469978c5bd15</t>
+  </si>
+  <si>
+    <t>gustavogushen@gmail.com</t>
+  </si>
+  <si>
+    <t>8f62a0ad6b6ccf3eb7195dfb86603ce3</t>
+  </si>
+  <si>
+    <t>32315448824</t>
+  </si>
+  <si>
+    <t>354cf9170ab428b0282f89eae9d5bd1c</t>
+  </si>
+  <si>
+    <t>cassiatavarespv@gmail.com</t>
+  </si>
+  <si>
+    <t>901b1d053d706effa910b36fd818901e</t>
+  </si>
+  <si>
+    <t>76765440763</t>
+  </si>
+  <si>
+    <t>bc1666b12adf56bea503fbac9669bd40</t>
+  </si>
+  <si>
+    <t>geralmuraro@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>907aaf773c1f745f121f58b009b2f2dc</t>
+  </si>
+  <si>
+    <t>07818648950</t>
+  </si>
+  <si>
+    <t>f64ee7d20702bcfe4e781f7fb24177fa</t>
+  </si>
+  <si>
+    <t>ueversonlucas@gmail.com</t>
+  </si>
+  <si>
+    <t>907faed8c53f260730c652ef9935a4a2</t>
+  </si>
+  <si>
+    <t>36138440870</t>
+  </si>
+  <si>
+    <t>9aba0d319ee4968c026a95dd5a7d710c</t>
+  </si>
+  <si>
+    <t>btnauticservice@gmail.com</t>
+  </si>
+  <si>
+    <t>9205a37aa95352683b97b8158db585e3</t>
+  </si>
+  <si>
+    <t>34010705841</t>
+  </si>
+  <si>
+    <t>7f3fab26f88372f96dacef6bdee77d2e</t>
+  </si>
+  <si>
+    <t>maykelsiqueira@hotmail.com</t>
+  </si>
+  <si>
+    <t>92aab79bd90a531040c94a9cf760352c</t>
+  </si>
+  <si>
+    <t>28361608885</t>
+  </si>
+  <si>
+    <t>aafae9a64822ed70ab5378a12531e380</t>
+  </si>
+  <si>
+    <t>paulo141097@gmail.com</t>
+  </si>
+  <si>
+    <t>93259fcf65ac3f1fcdedfa8a67cbe9c0</t>
+  </si>
+  <si>
+    <t>42426485884</t>
+  </si>
+  <si>
+    <t>10fc155acead93195ed5ab4a551e543c</t>
+  </si>
+  <si>
+    <t>turianocfs@outlook.com</t>
+  </si>
+  <si>
+    <t>932b9b8ffa9b1490ceb682ee56bb9d3f</t>
+  </si>
+  <si>
+    <t>10324938446</t>
+  </si>
+  <si>
+    <t>3cb3a86c487c6c0b434db947eaa8c175</t>
+  </si>
+  <si>
+    <t>natanael.silva1987@gmail.com</t>
+  </si>
+  <si>
+    <t>9393c938d33a3a86456c0c5ed06ce81e</t>
+  </si>
+  <si>
+    <t>23029149889</t>
+  </si>
+  <si>
+    <t>b46b4b92ceb1f21feda1726eec6d7b6e</t>
+  </si>
+  <si>
+    <t>evertondiamantino@gmail.com</t>
+  </si>
+  <si>
+    <t>93a6cd5b429ad6239a4c98aa7590cc28</t>
+  </si>
+  <si>
+    <t>00691338590</t>
+  </si>
+  <si>
+    <t>0ee207f29be5512d36ac86778bf7d8ff</t>
+  </si>
+  <si>
+    <t>jair.lemos.bh@gmail.com</t>
+  </si>
+  <si>
+    <t>9678ffc3e86ddd86f625973ed3f938bc</t>
+  </si>
+  <si>
+    <t>78019800697</t>
+  </si>
+  <si>
+    <t>581a5c70d4aab347ea13dda77e3bb9d9</t>
+  </si>
+  <si>
+    <t>renato_botan@hotmail.com</t>
+  </si>
+  <si>
+    <t>98aebac35fbedc52f1b7daa97a009610</t>
+  </si>
+  <si>
+    <t>37994188818</t>
+  </si>
+  <si>
+    <t>527bddb7dbe70d67eaff2547ba4a7631</t>
+  </si>
+  <si>
+    <t>jonatas_bene@msn.com</t>
+  </si>
+  <si>
+    <t>994c1636e7f47ccd7e2516cd7b8cc96e</t>
+  </si>
+  <si>
+    <t>30567796850</t>
+  </si>
+  <si>
+    <t>5c57f8c8b80af18e0c4af880d8493d48</t>
+  </si>
+  <si>
+    <t>michel.andragomes@outlook.com</t>
+  </si>
+  <si>
+    <t>9a3c31c23a9d944faf4f97db9b6b5594</t>
+  </si>
+  <si>
+    <t>29032406809</t>
+  </si>
+  <si>
+    <t>33ae1bb80eb1e96b5e8cf568ff556925</t>
+  </si>
+  <si>
+    <t>tiagojv@gmail.com</t>
+  </si>
+  <si>
+    <t>9b4b993800418b35b825148868eb92b2</t>
+  </si>
+  <si>
+    <t>99645645034</t>
+  </si>
+  <si>
+    <t>0303c0c83a5954912f166d0b33224067</t>
+  </si>
+  <si>
+    <t>satikiss@hotmail.com</t>
+  </si>
+  <si>
+    <t>9b7cae7056738eab0e953437dc573fbb</t>
+  </si>
+  <si>
+    <t>21907531807</t>
+  </si>
+  <si>
+    <t>711e34872169faa8df6be7dc3f64e042</t>
+  </si>
+  <si>
+    <t>davi87@protonmail.com</t>
+  </si>
+  <si>
+    <t>9e74827b118aed1d15b32e87c25ea77a</t>
+  </si>
+  <si>
+    <t>02093159112</t>
+  </si>
+  <si>
+    <t>9eb2495608fce7fcfe527eca7850cb4e</t>
+  </si>
+  <si>
+    <t>mc.marceloooo@gmail.com</t>
+  </si>
+  <si>
+    <t>9f5857fe5f19cea9d443bec1e293953f</t>
+  </si>
+  <si>
+    <t>03060479186</t>
+  </si>
+  <si>
+    <t>6e2bb0b4cf311254c567fc0c61efe6a1</t>
+  </si>
+  <si>
+    <t>pregof@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>a295964284d6f1aa116a737aaadce5cd</t>
+  </si>
+  <si>
+    <t>02881831931</t>
+  </si>
+  <si>
+    <t>d079cd7d8b412334de55133f999fefc4</t>
+  </si>
+  <si>
+    <t>samuel@cineshop.com.br</t>
+  </si>
+  <si>
+    <t>a310c6caeb2a73e34b72fc23b9accdc6</t>
+  </si>
+  <si>
+    <t>26452327879</t>
+  </si>
+  <si>
+    <t>02f8b2296067a16f4f5b6703930b4d0f</t>
+  </si>
+  <si>
+    <t>sofiaguerraavila@gmail.com</t>
+  </si>
+  <si>
+    <t>a55a919341961275f2e9e338b5f8c600</t>
+  </si>
+  <si>
+    <t>09280757458</t>
+  </si>
+  <si>
+    <t>0397d6d8c21a7db484c54b99e3d5118b</t>
+  </si>
+  <si>
+    <t>rodriguesyuri@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>a58c656c529aa8777acc2bd648d08e34</t>
+  </si>
+  <si>
+    <t>03590665343</t>
+  </si>
+  <si>
+    <t>2dd4e5caabf19b7b379601feb9f1375d</t>
+  </si>
+  <si>
+    <t>hlacorreia@gmail.com</t>
+  </si>
+  <si>
+    <t>a688288e6c4db2f1adda0afc4a4b795d</t>
+  </si>
+  <si>
+    <t>09479017792</t>
+  </si>
+  <si>
+    <t>a13641521cdbecb77a48c5a1a0d87781</t>
+  </si>
+  <si>
+    <t>bruno.britomachado@gmail.com</t>
+  </si>
+  <si>
+    <t>ab8bc0f02388278dfdc74749417c55fb</t>
+  </si>
+  <si>
+    <t>01318282314</t>
+  </si>
+  <si>
+    <t>fed0af97f852b31d6a643bf5bd59d3f2</t>
+  </si>
+  <si>
+    <t>ronaldo.csantos@hotmail.com</t>
+  </si>
+  <si>
+    <t>abc29f99c41ce31896e7f05fc561bf83</t>
+  </si>
+  <si>
+    <t>38308494862</t>
+  </si>
+  <si>
+    <t>f4eac0a68020d6a84c8da7337c486667</t>
+  </si>
+  <si>
+    <t>cassia.nagle@gmail.com</t>
+  </si>
+  <si>
+    <t>ac35b3622e6c4e634ffff661ce63c04f</t>
+  </si>
+  <si>
+    <t>35866115875</t>
+  </si>
+  <si>
+    <t>00935ceab23c02e71d10c3560e405dde</t>
+  </si>
+  <si>
+    <t>emerson.contabilista@gmail.com</t>
+  </si>
+  <si>
+    <t>ac7c050c2732a2374856b6c3a125f4ae</t>
+  </si>
+  <si>
+    <t>15220167839</t>
+  </si>
+  <si>
+    <t>b4b0b1114019a0a016d6394a405430c8</t>
+  </si>
+  <si>
+    <t>josebechererjunior@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>ad5da0d9afd235cf8adb81d72e08035e</t>
+  </si>
+  <si>
+    <t>73094676804</t>
+  </si>
+  <si>
+    <t>a18870c0a8578cc2c33f84ea1275212a</t>
+  </si>
+  <si>
+    <t>miguelnasser@hotmail.com</t>
+  </si>
+  <si>
+    <t>aedad2cf810bc6d32efcf6045df58fa5</t>
+  </si>
+  <si>
+    <t>02577878362</t>
+  </si>
+  <si>
+    <t>097ba6c969fa7c24c226f75d94cef49c</t>
+  </si>
+  <si>
+    <t>fmtjdf@gmail.com</t>
+  </si>
+  <si>
+    <t>b0de5a090e1539c8bdc97c0b1cc1cd0f</t>
+  </si>
+  <si>
+    <t>83467777104</t>
+  </si>
+  <si>
+    <t>d78d072e7f1f2dd451995360723c0459</t>
+  </si>
+  <si>
+    <t>hygoorjorge@gmail.com</t>
+  </si>
+  <si>
+    <t>b20b1e4567f914bb7f3b3f648089752b</t>
+  </si>
+  <si>
+    <t>09434599741</t>
+  </si>
+  <si>
+    <t>77f86bdc6f864e6d3c12da0ae6b45e1e</t>
+  </si>
+  <si>
+    <t>vrs.pqd@gmail.com</t>
+  </si>
+  <si>
+    <t>b26cbf9a024d83d971f68b32e27b94f8</t>
+  </si>
+  <si>
+    <t>02407181786</t>
+  </si>
+  <si>
+    <t>415b54bf8fe1e3ab52919fcaaf115124</t>
+  </si>
+  <si>
+    <t>icaro911@gmail.com</t>
+  </si>
+  <si>
+    <t>b32e92689fe24369f25a390c4f5cc13e</t>
+  </si>
+  <si>
+    <t>36833366845</t>
+  </si>
+  <si>
+    <t>8d808c7571942bb7d6042904467136d3</t>
+  </si>
+  <si>
+    <t>niltonnando@hotmail.com</t>
+  </si>
+  <si>
+    <t>b3690725be31739a56d53c8061a0a838</t>
+  </si>
+  <si>
+    <t>13766278843</t>
+  </si>
+  <si>
+    <t>51dd5bfa06abcd7775e721426e490a43</t>
+  </si>
+  <si>
+    <t>fclavery@outlook.com</t>
+  </si>
+  <si>
+    <t>b420ad33ef7ff4199e82cc06ccfd70b9</t>
+  </si>
+  <si>
+    <t>21962641805</t>
+  </si>
+  <si>
+    <t>1d158381a16a598b4755fad9da4852e3</t>
+  </si>
+  <si>
+    <t>pitiavillar@hotmail.com</t>
+  </si>
+  <si>
+    <t>b5ba786c18172bb9d22da5f58a8e4ef2</t>
+  </si>
+  <si>
+    <t>05785468760</t>
+  </si>
+  <si>
+    <t>43277d4b8a4885b2af7e07c4af4ff765</t>
+  </si>
+  <si>
+    <t>flavianecmarques@gmail.com</t>
+  </si>
+  <si>
+    <t>b6a413b65d32626df7b8920875cc5e89</t>
+  </si>
+  <si>
+    <t>03636882180</t>
+  </si>
+  <si>
+    <t>59f5c74f9c2d4d4ff6a4ec62358b5dab</t>
+  </si>
+  <si>
+    <t>victor.medeiros@gmail.com</t>
+  </si>
+  <si>
+    <t>b8c264e7906efa3a6324e2ecc0d6da62</t>
+  </si>
+  <si>
+    <t>28919283850</t>
+  </si>
+  <si>
+    <t>037cfb9e71df46c80d3379f42148c6d1</t>
+  </si>
+  <si>
+    <t>junior@jcfarmaceutica.com.br</t>
+  </si>
+  <si>
+    <t>bb5ce4319cfd6a5153d2ffac7605dbb0</t>
+  </si>
+  <si>
+    <t>54816360182</t>
+  </si>
+  <si>
+    <t>79631b252d2d4b445143ef7e95e17e5a</t>
+  </si>
+  <si>
+    <t>lucinut@gmail.com</t>
+  </si>
+  <si>
+    <t>bc8c6e2088a47226ba6884737a233384</t>
+  </si>
+  <si>
+    <t>09669341728</t>
+  </si>
+  <si>
+    <t>8f57c21b3983763cce53eb768abe71ae</t>
+  </si>
+  <si>
+    <t>ismael.soares@gmail.com</t>
+  </si>
+  <si>
+    <t>bead6f7d39f3f4ae25e15d14c3c3d93c</t>
+  </si>
+  <si>
+    <t>089251296120</t>
+  </si>
+  <si>
+    <t>11cddcbbeb136cb6e84a0622e2f9e762</t>
+  </si>
+  <si>
+    <t>rb.fabio@gmail.com</t>
+  </si>
+  <si>
+    <t>bfd7162fce7b83772f1c23580a0739e0</t>
+  </si>
+  <si>
+    <t>03599104913</t>
+  </si>
+  <si>
+    <t>f4e9edb8d42b998e042bbc24a1713a17</t>
+  </si>
+  <si>
+    <t>raffosena@gmail.com</t>
+  </si>
+  <si>
+    <t>c0949993ad539263cce5241361df2069</t>
+  </si>
+  <si>
+    <t>02327862590</t>
+  </si>
+  <si>
+    <t>7a2128eccd9364cb16e771479844eda1</t>
+  </si>
+  <si>
+    <t>marvin.mike@hotmail.com</t>
+  </si>
+  <si>
+    <t>c17f8ef7ae6297d63039be2945b07bfd</t>
+  </si>
+  <si>
+    <t>31901283836</t>
+  </si>
+  <si>
+    <t>2663c04d8bf7575f8e2a0bdf7649b605</t>
+  </si>
+  <si>
+    <t>garciaejunior@gmail.com</t>
+  </si>
+  <si>
+    <t>c1cbe5245b3b3d60bbd98b99ded87d62</t>
+  </si>
+  <si>
+    <t>13013465867</t>
+  </si>
+  <si>
+    <t>75ad68df9d666cd9c4da321b2f5f346c</t>
+  </si>
+  <si>
+    <t>victorpratag@hotmail.com</t>
+  </si>
+  <si>
+    <t>c71a3b87d93043cbb06ab248195646c5</t>
+  </si>
+  <si>
+    <t>13036213716</t>
+  </si>
+  <si>
+    <t>08460be2bb8f6a2d65854596617e3ed9</t>
+  </si>
+  <si>
+    <t>estefanifrancini@hotmail.com</t>
+  </si>
+  <si>
+    <t>c902bca5c4de38465adaa76f418cbf12</t>
+  </si>
+  <si>
+    <t>10506654737</t>
+  </si>
+  <si>
+    <t>17e5f30ddc6924a9c1d597a21cbcef0d</t>
+  </si>
+  <si>
+    <t>jorgebt@contabilidadecontabrasil.com.br</t>
+  </si>
+  <si>
+    <t>c96b808fe7095d02a5b25d2b205726f0</t>
+  </si>
+  <si>
+    <t>67240291987</t>
+  </si>
+  <si>
+    <t>d7c6d5b0e6bb9752d15c7ca6bf99b8b3</t>
+  </si>
+  <si>
+    <t>lucianasurette@hotmail.com</t>
+  </si>
+  <si>
+    <t>c9c0d3087fbaa21232dbef42eecd34d2</t>
+  </si>
+  <si>
+    <t>83950770682</t>
+  </si>
+  <si>
+    <t>e0408d7a44fdca5033f3749f660ae7d2</t>
+  </si>
+  <si>
+    <t>e5642b34c2408680d41977c4b596ab93</t>
+  </si>
+  <si>
+    <t>morais.pessoal@gmail.com</t>
+  </si>
+  <si>
+    <t>ca16ccfc7e960d5332e908df7cf2a98a</t>
+  </si>
+  <si>
+    <t>01233402099</t>
+  </si>
+  <si>
+    <t>772bdc728143f6b9564b5c20f1fd93a2</t>
+  </si>
+  <si>
+    <t>victorsssilva@hotmail.com</t>
+  </si>
+  <si>
+    <t>cc8a216664513d7ee666b3e009fea396</t>
+  </si>
+  <si>
+    <t>08031897700</t>
+  </si>
+  <si>
+    <t>175859387ad266164a1741e62fc51439</t>
+  </si>
+  <si>
+    <t>yagominto@gmail.com</t>
+  </si>
+  <si>
+    <t>cc8ff99c1d9273ac1f60ef594ed6e1b6</t>
+  </si>
+  <si>
+    <t>43383570886</t>
+  </si>
+  <si>
+    <t>4eae5c81bfa8dc6881bbb75c7c07a31c</t>
+  </si>
+  <si>
+    <t>danielalves.da287@gmail.com</t>
+  </si>
+  <si>
+    <t>cdbaa4116221611eb85cef8fcc369818</t>
+  </si>
+  <si>
+    <t>08134339751</t>
+  </si>
+  <si>
+    <t>71f21884ee4c96326923ae9efe415978</t>
+  </si>
+  <si>
+    <t>gloriagargi@hotmail.com</t>
+  </si>
+  <si>
+    <t>ce993dfcc359b7c8f8270f5596602cc0</t>
+  </si>
+  <si>
+    <t>23468305850</t>
+  </si>
+  <si>
+    <t>d9bd8daeb43c4c1d666e483d2998ccae</t>
+  </si>
+  <si>
+    <t>fabiano_c_cunha@hotmail.com</t>
+  </si>
+  <si>
+    <t>ceec546a84470c4cfde1ce05d6e73aca</t>
+  </si>
+  <si>
+    <t>94565554534</t>
+  </si>
+  <si>
+    <t>ecc1311b132e516d5f533ebfe01630c5</t>
+  </si>
+  <si>
+    <t>santanamssph@gmail.com</t>
+  </si>
+  <si>
+    <t>d55c7e7783b57a56a765010136266e63</t>
+  </si>
+  <si>
+    <t>04735015973</t>
+  </si>
+  <si>
+    <t>c30583ebd6def10d3d01f4fe727484f8</t>
+  </si>
+  <si>
+    <t>celioog@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>d66185d2ded5e99bf56a006a32998f1f</t>
+  </si>
+  <si>
+    <t>27609615838</t>
+  </si>
+  <si>
+    <t>185aceb516b6fd5d4a53b276b0f771f3</t>
+  </si>
+  <si>
+    <t>luishenrique.m@gmail.com</t>
+  </si>
+  <si>
+    <t>d6ce467551595d718523508c64073a10</t>
+  </si>
+  <si>
+    <t>34089478804</t>
+  </si>
+  <si>
+    <t>59f32dd66bab5baa42149affa1960736</t>
+  </si>
+  <si>
+    <t>m.deandrade02@gmail.com</t>
+  </si>
+  <si>
+    <t>d75d3c5e02341e30c965e1b36f50c3a2</t>
+  </si>
+  <si>
+    <t>08845888908</t>
+  </si>
+  <si>
+    <t>b50280cce4cee8726a72d4b41da62b5e</t>
+  </si>
+  <si>
+    <t>marcusmattei@gmail.com</t>
+  </si>
+  <si>
+    <t>d75fc37b7830f17bb8cde462ba50943b</t>
+  </si>
+  <si>
+    <t>17085341807</t>
+  </si>
+  <si>
+    <t>8e66471b7fec3c25ddea5e2829bbe8d5</t>
+  </si>
+  <si>
+    <t>hidekonaka@gmail.com</t>
+  </si>
+  <si>
+    <t>d799d7696be9aae2a36eaff4eb06dafe</t>
+  </si>
+  <si>
+    <t>04016305950</t>
+  </si>
+  <si>
+    <t>e26d05e1cfe53303f3423ba8b3c38513</t>
+  </si>
+  <si>
+    <t>rapha__mendes@hotmail.com</t>
+  </si>
+  <si>
+    <t>d941b70641a8969b056646f715f5190a</t>
+  </si>
+  <si>
+    <t>47600056844</t>
+  </si>
+  <si>
+    <t>a77496c1d2d560576c42a6d955465e54</t>
+  </si>
+  <si>
+    <t>ataides@hotmail.com</t>
+  </si>
+  <si>
+    <t>dbc3334be0b28936d0c6838be1319c10</t>
+  </si>
+  <si>
+    <t>86687158104</t>
+  </si>
+  <si>
+    <t>32fa8ac5a2f02d688aef97cea70f6a96</t>
+  </si>
+  <si>
+    <t>vagner2689@gmail.com</t>
+  </si>
+  <si>
+    <t>dbdb8ac57c26786b11e92967e91245c9</t>
+  </si>
+  <si>
+    <t>33609511826</t>
+  </si>
+  <si>
+    <t>7822267a79373c0acddec10268126b35</t>
+  </si>
+  <si>
+    <t>dinizedd@icloud.com</t>
+  </si>
+  <si>
+    <t>dc2399b16603f0f865a9ecd539f2515e</t>
+  </si>
+  <si>
+    <t>40911419861</t>
+  </si>
+  <si>
+    <t>fa6745eafabaa0836c178352e244c1e4</t>
+  </si>
+  <si>
+    <t>ldeweck@gmail.com</t>
+  </si>
+  <si>
+    <t>dd1f764e724230ad7de10bd6e0141f04</t>
+  </si>
+  <si>
+    <t>93970889200</t>
+  </si>
+  <si>
+    <t>182e9b942b9e5a8e5cd51e3b494a567b</t>
+  </si>
+  <si>
+    <t>adauto.junior@riolex.com.br</t>
+  </si>
+  <si>
+    <t>df1c2489f56e56c83e1544ba8fb063d4</t>
+  </si>
+  <si>
+    <t>29313313847</t>
+  </si>
+  <si>
+    <t>24c69c70b9e8190891e0c6469b42429a</t>
+  </si>
+  <si>
+    <t>pramirdesouza@hotmail.com</t>
+  </si>
+  <si>
+    <t>e122bbbaf6399a67707830296407bd53</t>
+  </si>
+  <si>
+    <t>72599499968</t>
+  </si>
+  <si>
+    <t>903ace06b9b12c1ff3b453aaacae3f76</t>
+  </si>
+  <si>
+    <t>gabiischram@gmail.com</t>
+  </si>
+  <si>
+    <t>e1a32df227adad7e32c4c7070da7bd0e</t>
+  </si>
+  <si>
+    <t>08341270919</t>
+  </si>
+  <si>
+    <t>c6a56d9a0fde5f49aecb9d18124c6751</t>
+  </si>
+  <si>
+    <t>nfontesj@gmail.com</t>
+  </si>
+  <si>
+    <t>e2416c7b950edef70bdf5b306b385585</t>
+  </si>
+  <si>
+    <t>58824049591</t>
+  </si>
+  <si>
+    <t>6a83208024092278d024d62e4948078e</t>
+  </si>
+  <si>
+    <t>componet@bol.com.br</t>
+  </si>
+  <si>
+    <t>e79a36bb99134a6477d48ddf9233e79a</t>
+  </si>
+  <si>
+    <t>27027384353</t>
+  </si>
+  <si>
+    <t>2f78fdf505e88228d89853995620cf34</t>
+  </si>
+  <si>
+    <t>claudiorpabramides@hotmail.com</t>
+  </si>
+  <si>
+    <t>e866696f3028f7d25f71a4ab02530e1e</t>
+  </si>
+  <si>
+    <t>33279186862</t>
+  </si>
+  <si>
+    <t>27b9a905cb514da7b6b07993c21b00f6</t>
+  </si>
+  <si>
+    <t>martamgonzaga@hotmail.com</t>
+  </si>
+  <si>
+    <t>e937cd5db493b458d7fc0401ed66a846</t>
+  </si>
+  <si>
+    <t>08574252859</t>
+  </si>
+  <si>
+    <t>fb3ec8b8f59fe879dab9b13d5b825315</t>
+  </si>
+  <si>
+    <t>leoalencar2007@hotmail.com</t>
+  </si>
+  <si>
+    <t>ea63a48fecbb9d71b0ff24d79838fa0e</t>
+  </si>
+  <si>
+    <t>86175335368</t>
+  </si>
+  <si>
+    <t>630b2d316b7a330764e7053f931e6f8b</t>
+  </si>
+  <si>
+    <t>edy.freitas1000@gmail.com</t>
+  </si>
+  <si>
+    <t>eaa130c2a854e7d9d5d7746b33b4fb0c</t>
+  </si>
+  <si>
+    <t>89814185191</t>
+  </si>
+  <si>
+    <t>b422e4aac1c7b5a4b790211d5e6fceeb</t>
+  </si>
+  <si>
+    <t>charlesbsalum@gmail.com</t>
+  </si>
+  <si>
+    <t>ec2d300344de9dabbd5ab7fd18380d02</t>
+  </si>
+  <si>
+    <t>d66ed72fcb269e476ee40c02117b07f4</t>
+  </si>
+  <si>
+    <t>lelcmg@gmail.com</t>
+  </si>
+  <si>
+    <t>ee2394d0236a473ead63141cc4ff289d</t>
+  </si>
+  <si>
+    <t>11436203805</t>
+  </si>
+  <si>
+    <t>08a9f7889da31e7da8cd2e746982b885</t>
+  </si>
+  <si>
+    <t>ricardoagente@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>f062decd3e7736696e9cac0278d17f5a</t>
+  </si>
+  <si>
+    <t>04137759685</t>
+  </si>
+  <si>
+    <t>904c6fe5253544ffe84c8cf5d21f668f</t>
+  </si>
+  <si>
+    <t>silvanaavilabr@hotmail.com</t>
+  </si>
+  <si>
+    <t>f085032ce51ab15acc5736ffd04c029d</t>
+  </si>
+  <si>
+    <t>55708153687</t>
+  </si>
+  <si>
+    <t>3b247396b3f6ff5a11466fabd1f2f870</t>
+  </si>
+  <si>
+    <t>nobestore@gmail.com</t>
+  </si>
+  <si>
+    <t>f1f1e617ebefa6d77edb8e484f8f3c54</t>
+  </si>
+  <si>
+    <t>09427901624</t>
+  </si>
+  <si>
+    <t>1cb70993723a9f81c4ecd6ba82cc64ac</t>
+  </si>
+  <si>
+    <t>franklinmtorres@gmail.com</t>
+  </si>
+  <si>
+    <t>f2d1543167f1cb9755a49808af538a9e</t>
+  </si>
+  <si>
+    <t>02316536115</t>
+  </si>
+  <si>
+    <t>cd41f18f5addc741a75e10e49c099a53</t>
+  </si>
+  <si>
+    <t>raphinhamotter@hotmail.com</t>
+  </si>
+  <si>
+    <t>f4337640593484c15d1c898a3aefe283</t>
+  </si>
+  <si>
+    <t>01453313001</t>
+  </si>
+  <si>
+    <t>e50e51a95b6b084cc2b2a41ab7f74717</t>
+  </si>
+  <si>
+    <t>jrcamanho@hotmail.com</t>
+  </si>
+  <si>
+    <t>f511487f40617437e1cf35c8282cc3d8</t>
+  </si>
+  <si>
+    <t>11026342716</t>
+  </si>
+  <si>
+    <t>fee516f279471000a3b4e849b7a77f43</t>
+  </si>
+  <si>
+    <t>fernando@pies.com.br</t>
+  </si>
+  <si>
+    <t>f700703c0d42789ed1dbcda43340d126</t>
+  </si>
+  <si>
+    <t>00413625001</t>
+  </si>
+  <si>
+    <t>4581d9046cdd3c25ee38ecfd85271d8b</t>
+  </si>
+  <si>
+    <t>fpadrao@gmail.com</t>
+  </si>
+  <si>
+    <t>f76b3f2da8c94c43d7ce331893933a45</t>
+  </si>
+  <si>
+    <t>05445372707</t>
+  </si>
+  <si>
+    <t>798682b5f843c94a3925cf64d5312d1b</t>
+  </si>
+  <si>
+    <t>rafael_tibes@hotmail.com</t>
+  </si>
+  <si>
+    <t>f9762bebd4887724447da0965b07670f</t>
+  </si>
+  <si>
+    <t>08840358919</t>
+  </si>
+  <si>
+    <t>5f45aa0f3c79e97e8bad20b0f145ca26</t>
+  </si>
+  <si>
+    <t>f.pepinelli@gmail.com</t>
+  </si>
+  <si>
+    <t>fc1619900c94a54c1227de54dea68bdf</t>
+  </si>
+  <si>
+    <t>32642888851</t>
+  </si>
+  <si>
+    <t>5dca7b737c0525d778a18eea758f6760</t>
+  </si>
+  <si>
+    <t>soareseduardoaraujo@gmail.com</t>
+  </si>
+  <si>
+    <t>fdbef3227e4f4bb165a57d3feed4155e</t>
+  </si>
+  <si>
+    <t>04488204120</t>
+  </si>
+  <si>
+    <t>ed8b2e6d6f0bfd89293c8e7ecd088ef9</t>
+  </si>
+  <si>
+    <t>campagnolo_jc@hotmail.com</t>
+  </si>
+  <si>
+    <t>feccda9e72114d98e2d5e4265df99d16</t>
+  </si>
+  <si>
+    <t>06536455975</t>
+  </si>
+  <si>
+    <t>5aa0fded093b37224fde9cf1cff0fca6</t>
   </si>
 </sst>
 </file>
@@ -420,13 +2733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K200"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="9" max="10" width="2" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,24 +2767,4933 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F2">
-        <v>212.235</v>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>1157.1</v>
+      </c>
+      <c r="H2">
+        <v>7660.587</v>
       </c>
       <c r="I2">
-        <v>17.309</v>
+        <v>1868.587</v>
       </c>
       <c r="J2">
-        <v>194.926</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>212.235</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1166998.68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>20.307</v>
+      </c>
+      <c r="J3">
+        <v>20.307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1431776</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3246050</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>2472056.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>2.943</v>
+      </c>
+      <c r="J7">
+        <v>2.943</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>2039790.42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>9.004</v>
+      </c>
+      <c r="J8">
+        <v>9.004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>1300362.23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>9.452</v>
+      </c>
+      <c r="J9">
+        <v>9.452</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1414878.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>15.54</v>
+      </c>
+      <c r="I10">
+        <v>3.485</v>
+      </c>
+      <c r="J10">
+        <v>12.055</v>
+      </c>
+      <c r="K10">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1327616.77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>100.546</v>
+      </c>
+      <c r="I11">
+        <v>24.646</v>
+      </c>
+      <c r="J11">
+        <v>75.9</v>
+      </c>
+      <c r="K11">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>2028032.64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>82.721</v>
+      </c>
+      <c r="I12">
+        <v>20.079</v>
+      </c>
+      <c r="J12">
+        <v>62.642</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>1387674.75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>117.117</v>
+      </c>
+      <c r="I13">
+        <v>21.4</v>
+      </c>
+      <c r="J13">
+        <v>95.717</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>1193559.84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>4.471</v>
+      </c>
+      <c r="J14">
+        <v>4.471</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>706260.48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>69.558</v>
+      </c>
+      <c r="I15">
+        <v>25.729</v>
+      </c>
+      <c r="J15">
+        <v>43.829</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>1500726.72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>30.104</v>
+      </c>
+      <c r="I16">
+        <v>8.049</v>
+      </c>
+      <c r="J16">
+        <v>22.055</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <v>1711257.6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17">
+        <v>42.807</v>
+      </c>
+      <c r="I17">
+        <v>0.61</v>
+      </c>
+      <c r="J17">
+        <v>42.197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>450869.35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>400105.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19">
+        <v>816.952</v>
+      </c>
+      <c r="I19">
+        <v>552.629</v>
+      </c>
+      <c r="J19">
+        <v>264.323</v>
+      </c>
+      <c r="K19">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>2295000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>1164753.45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>19.48</v>
+      </c>
+      <c r="I21">
+        <v>4.931</v>
+      </c>
+      <c r="J21">
+        <v>14.549</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>142356</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23">
+        <v>1066064.56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23">
+        <v>39.64</v>
+      </c>
+      <c r="I23">
+        <v>0.92</v>
+      </c>
+      <c r="J23">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>1164804.48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24">
+        <v>4.389</v>
+      </c>
+      <c r="I24">
+        <v>0.359</v>
+      </c>
+      <c r="J24">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>1039739.8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>66.263</v>
+      </c>
+      <c r="I25">
+        <v>27.419</v>
+      </c>
+      <c r="J25">
+        <v>38.844</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>1183841.12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26">
+        <v>7.35</v>
+      </c>
+      <c r="I26">
+        <v>3.122</v>
+      </c>
+      <c r="J26">
+        <v>4.228</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27">
+        <v>1188860.2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27">
+        <v>8.056</v>
+      </c>
+      <c r="I27">
+        <v>1.187</v>
+      </c>
+      <c r="J27">
+        <v>6.869</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28">
+        <v>1787135.98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28">
+        <v>6.548</v>
+      </c>
+      <c r="J28">
+        <v>6.548</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29">
+        <v>1194769.84</v>
+      </c>
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29">
+        <v>3.492</v>
+      </c>
+      <c r="J29">
+        <v>3.492</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30">
+        <v>1895897.2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30">
+        <v>12.212</v>
+      </c>
+      <c r="I30">
+        <v>1.411</v>
+      </c>
+      <c r="J30">
+        <v>10.801</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31">
+        <v>1670501.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>1562325.84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
+        <v>30.46</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33">
+        <v>414402.43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33">
+        <v>456.945</v>
+      </c>
+      <c r="I33">
+        <v>102.271</v>
+      </c>
+      <c r="J33">
+        <v>354.674</v>
+      </c>
+      <c r="K33">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34">
+        <v>1187572.76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+      <c r="H34">
+        <v>9.27</v>
+      </c>
+      <c r="J34">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35">
+        <v>1215190.85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36">
+        <v>1104985.04</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36">
+        <v>14.143</v>
+      </c>
+      <c r="I36">
+        <v>2.276</v>
+      </c>
+      <c r="J36">
+        <v>11.867</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37">
+        <v>2175061</v>
+      </c>
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37">
+        <v>61.947</v>
+      </c>
+      <c r="I37">
+        <v>12.37</v>
+      </c>
+      <c r="J37">
+        <v>49.577</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38">
+        <v>1248917.91</v>
+      </c>
+      <c r="F38" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38">
+        <v>59.986</v>
+      </c>
+      <c r="I38">
+        <v>7.992</v>
+      </c>
+      <c r="J38">
+        <v>51.994</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39">
+        <v>1304848.64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39">
+        <v>4.307</v>
+      </c>
+      <c r="J39">
+        <v>4.307</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40">
+        <v>1751912.8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40">
+        <v>533.528</v>
+      </c>
+      <c r="J40">
+        <v>533.528</v>
+      </c>
+      <c r="K40">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41">
+        <v>837924.36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41">
+        <v>46.91</v>
+      </c>
+      <c r="I41">
+        <v>9.63</v>
+      </c>
+      <c r="J41">
+        <v>37.28</v>
+      </c>
+      <c r="K41">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42">
+        <v>1411651.77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42">
+        <v>81.69</v>
+      </c>
+      <c r="I42">
+        <v>32.115</v>
+      </c>
+      <c r="J42">
+        <v>49.575</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44">
+        <v>1202862.92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44">
+        <v>26.727</v>
+      </c>
+      <c r="I44">
+        <v>9.204</v>
+      </c>
+      <c r="J44">
+        <v>17.523</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45">
+        <v>1417862</v>
+      </c>
+      <c r="F45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45">
+        <v>1.028</v>
+      </c>
+      <c r="J45">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46">
+        <v>1196308.96</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46">
+        <v>1.597</v>
+      </c>
+      <c r="J46">
+        <v>1.597</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47">
+        <v>2050175.14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+      <c r="H47">
+        <v>11.864</v>
+      </c>
+      <c r="J47">
+        <v>11.864</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48">
+        <v>1055702.12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48">
+        <v>28.84</v>
+      </c>
+      <c r="I48">
+        <v>9.854</v>
+      </c>
+      <c r="J48">
+        <v>18.986</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49">
+        <v>4451656.24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H49">
+        <v>44.702</v>
+      </c>
+      <c r="J49">
+        <v>44.702</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50">
+        <v>6502670.12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50">
+        <v>36.253</v>
+      </c>
+      <c r="I50">
+        <v>11.234</v>
+      </c>
+      <c r="J50">
+        <v>25.019</v>
+      </c>
+      <c r="K50">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51">
+        <v>2027851.36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51">
+        <v>32.496</v>
+      </c>
+      <c r="I51">
+        <v>8.26</v>
+      </c>
+      <c r="J51">
+        <v>24.236</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52">
+        <v>1333056.53</v>
+      </c>
+      <c r="F52" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52">
+        <v>14.292</v>
+      </c>
+      <c r="I52">
+        <v>0.878</v>
+      </c>
+      <c r="J52">
+        <v>13.414</v>
+      </c>
+      <c r="K52">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53">
+        <v>2956459.5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>209</v>
+      </c>
+      <c r="H53">
+        <v>21.108</v>
+      </c>
+      <c r="I53">
+        <v>3.438</v>
+      </c>
+      <c r="J53">
+        <v>17.67</v>
+      </c>
+      <c r="K53">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54">
+        <v>4237268.3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>213</v>
+      </c>
+      <c r="H54">
+        <v>185.615</v>
+      </c>
+      <c r="J54">
+        <v>185.615</v>
+      </c>
+      <c r="K54">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55">
+        <v>1193222.9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55">
+        <v>2.331</v>
+      </c>
+      <c r="J55">
+        <v>2.331</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56">
+        <v>1184194.88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56">
+        <v>8.215</v>
+      </c>
+      <c r="I56">
+        <v>0.807</v>
+      </c>
+      <c r="J56">
+        <v>7.408</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57">
+        <v>1692810.65</v>
+      </c>
+      <c r="F57" t="s">
+        <v>225</v>
+      </c>
+      <c r="H57">
+        <v>83.515</v>
+      </c>
+      <c r="I57">
+        <v>23.33</v>
+      </c>
+      <c r="J57">
+        <v>60.185</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58">
+        <v>1784384.04</v>
+      </c>
+      <c r="F58" t="s">
+        <v>229</v>
+      </c>
+      <c r="H58">
+        <v>8.822</v>
+      </c>
+      <c r="I58">
+        <v>2.743</v>
+      </c>
+      <c r="J58">
+        <v>6.079</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60">
+        <v>2217547.86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>237</v>
+      </c>
+      <c r="H60">
+        <v>5.301</v>
+      </c>
+      <c r="I60">
+        <v>0.822</v>
+      </c>
+      <c r="J60">
+        <v>4.479</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61">
+        <v>1626037.01</v>
+      </c>
+      <c r="F61" t="s">
+        <v>241</v>
+      </c>
+      <c r="H61">
+        <v>41.914</v>
+      </c>
+      <c r="I61">
+        <v>7.348</v>
+      </c>
+      <c r="J61">
+        <v>34.566</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62">
+        <v>1191144.88</v>
+      </c>
+      <c r="F62" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62">
+        <v>4.665</v>
+      </c>
+      <c r="J62">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63">
+        <v>1628333.44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63">
+        <v>61.674</v>
+      </c>
+      <c r="I63">
+        <v>13.584</v>
+      </c>
+      <c r="J63">
+        <v>48.09</v>
+      </c>
+      <c r="K63">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64">
+        <v>1133794.37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>253</v>
+      </c>
+      <c r="H64">
+        <v>34.266</v>
+      </c>
+      <c r="I64">
+        <v>11.783</v>
+      </c>
+      <c r="J64">
+        <v>22.483</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65">
+        <v>188332</v>
+      </c>
+      <c r="F65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65">
+        <v>10.794</v>
+      </c>
+      <c r="I65">
+        <v>5.754</v>
+      </c>
+      <c r="J65">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66">
+        <v>1830768</v>
+      </c>
+      <c r="F66" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>265</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68">
+        <v>1541424.39</v>
+      </c>
+      <c r="F68" t="s">
+        <v>269</v>
+      </c>
+      <c r="H68">
+        <v>46.087</v>
+      </c>
+      <c r="I68">
+        <v>3.427</v>
+      </c>
+      <c r="J68">
+        <v>42.66</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69">
+        <v>453444</v>
+      </c>
+      <c r="F69" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70">
+        <v>2983563.17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>277</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C72" t="s">
+        <v>280</v>
+      </c>
+      <c r="D72" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72">
+        <v>1165467.75</v>
+      </c>
+      <c r="F72" t="s">
+        <v>282</v>
+      </c>
+      <c r="H72">
+        <v>5.073</v>
+      </c>
+      <c r="I72">
+        <v>2.901</v>
+      </c>
+      <c r="J72">
+        <v>2.172</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73">
+        <v>-131.1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>286</v>
+      </c>
+      <c r="H73">
+        <v>69.674</v>
+      </c>
+      <c r="I73">
+        <v>35.132</v>
+      </c>
+      <c r="J73">
+        <v>34.542</v>
+      </c>
+      <c r="K73">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74" t="s">
+        <v>289</v>
+      </c>
+      <c r="E74">
+        <v>2358617.73</v>
+      </c>
+      <c r="F74" t="s">
+        <v>290</v>
+      </c>
+      <c r="H74">
+        <v>32.629</v>
+      </c>
+      <c r="I74">
+        <v>9.327</v>
+      </c>
+      <c r="J74">
+        <v>23.302</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75" t="s">
+        <v>293</v>
+      </c>
+      <c r="E75">
+        <v>1635128.95</v>
+      </c>
+      <c r="F75" t="s">
+        <v>294</v>
+      </c>
+      <c r="H75">
+        <v>111.047</v>
+      </c>
+      <c r="I75">
+        <v>6.24</v>
+      </c>
+      <c r="J75">
+        <v>104.807</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76">
+        <v>2057205.15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>298</v>
+      </c>
+      <c r="H76">
+        <v>39.531</v>
+      </c>
+      <c r="J76">
+        <v>39.531</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77">
+        <v>4271048.2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>302</v>
+      </c>
+      <c r="H77">
+        <v>15.909</v>
+      </c>
+      <c r="I77">
+        <v>2.912</v>
+      </c>
+      <c r="J77">
+        <v>12.997</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78">
+        <v>2361075.64</v>
+      </c>
+      <c r="F78" t="s">
+        <v>306</v>
+      </c>
+      <c r="H78">
+        <v>10.932</v>
+      </c>
+      <c r="I78">
+        <v>4.192</v>
+      </c>
+      <c r="J78">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>307</v>
+      </c>
+      <c r="C79" t="s">
+        <v>308</v>
+      </c>
+      <c r="D79" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79">
+        <v>1769928.43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>310</v>
+      </c>
+      <c r="H79">
+        <v>7.364</v>
+      </c>
+      <c r="I79">
+        <v>0.773</v>
+      </c>
+      <c r="J79">
+        <v>6.591</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>311</v>
+      </c>
+      <c r="C80" t="s">
+        <v>312</v>
+      </c>
+      <c r="D80" t="s">
+        <v>313</v>
+      </c>
+      <c r="E80">
+        <v>940037.03</v>
+      </c>
+      <c r="F80" t="s">
+        <v>314</v>
+      </c>
+      <c r="H80">
+        <v>25.003</v>
+      </c>
+      <c r="I80">
+        <v>6.657</v>
+      </c>
+      <c r="J80">
+        <v>18.346</v>
+      </c>
+      <c r="K80">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" t="s">
+        <v>316</v>
+      </c>
+      <c r="D81" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81">
+        <v>1220433.58</v>
+      </c>
+      <c r="F81" t="s">
+        <v>318</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>319</v>
+      </c>
+      <c r="C82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" t="s">
+        <v>321</v>
+      </c>
+      <c r="E82">
+        <v>3477580.31</v>
+      </c>
+      <c r="F82" t="s">
+        <v>322</v>
+      </c>
+      <c r="H82">
+        <v>26.481</v>
+      </c>
+      <c r="I82">
+        <v>6.83</v>
+      </c>
+      <c r="J82">
+        <v>19.651</v>
+      </c>
+      <c r="K82">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" t="s">
+        <v>324</v>
+      </c>
+      <c r="D83" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83">
+        <v>1195096.04</v>
+      </c>
+      <c r="F83" t="s">
+        <v>326</v>
+      </c>
+      <c r="H83">
+        <v>0.381</v>
+      </c>
+      <c r="J83">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" t="s">
+        <v>329</v>
+      </c>
+      <c r="E84">
+        <v>1786493</v>
+      </c>
+      <c r="F84" t="s">
+        <v>330</v>
+      </c>
+      <c r="H84">
+        <v>10.059</v>
+      </c>
+      <c r="J84">
+        <v>10.059</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" t="s">
+        <v>332</v>
+      </c>
+      <c r="D85" t="s">
+        <v>333</v>
+      </c>
+      <c r="E85">
+        <v>3355692.18</v>
+      </c>
+      <c r="F85" t="s">
+        <v>334</v>
+      </c>
+      <c r="H85">
+        <v>155.081</v>
+      </c>
+      <c r="I85">
+        <v>40.297</v>
+      </c>
+      <c r="J85">
+        <v>114.784</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>335</v>
+      </c>
+      <c r="C86" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" t="s">
+        <v>337</v>
+      </c>
+      <c r="E86">
+        <v>1099960.3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86">
+        <v>1.178</v>
+      </c>
+      <c r="I86">
+        <v>0.992</v>
+      </c>
+      <c r="J86">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87">
+        <v>1194846.5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>342</v>
+      </c>
+      <c r="H87">
+        <v>2.422</v>
+      </c>
+      <c r="J87">
+        <v>2.422</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88">
+        <v>2224096.96</v>
+      </c>
+      <c r="F88" t="s">
+        <v>345</v>
+      </c>
+      <c r="H88">
+        <v>39.372</v>
+      </c>
+      <c r="I88">
+        <v>3.794</v>
+      </c>
+      <c r="J88">
+        <v>35.578</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" t="s">
+        <v>347</v>
+      </c>
+      <c r="D89" t="s">
+        <v>348</v>
+      </c>
+      <c r="E89">
+        <v>602324.87</v>
+      </c>
+      <c r="F89" t="s">
+        <v>349</v>
+      </c>
+      <c r="H89">
+        <v>25.054</v>
+      </c>
+      <c r="I89">
+        <v>4.701</v>
+      </c>
+      <c r="J89">
+        <v>20.353</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>350</v>
+      </c>
+      <c r="C90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D90" t="s">
+        <v>352</v>
+      </c>
+      <c r="E90">
+        <v>1625571.41</v>
+      </c>
+      <c r="F90" t="s">
+        <v>353</v>
+      </c>
+      <c r="H90">
+        <v>1.492</v>
+      </c>
+      <c r="J90">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91">
+        <v>1320029.62</v>
+      </c>
+      <c r="F91" t="s">
+        <v>357</v>
+      </c>
+      <c r="H91">
+        <v>0.273</v>
+      </c>
+      <c r="J91">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" t="s">
+        <v>360</v>
+      </c>
+      <c r="E92">
+        <v>12490825.37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>361</v>
+      </c>
+      <c r="H92">
+        <v>65.952</v>
+      </c>
+      <c r="I92">
+        <v>26.424</v>
+      </c>
+      <c r="J92">
+        <v>39.528</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>362</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" t="s">
+        <v>365</v>
+      </c>
+      <c r="E94">
+        <v>1170597.96</v>
+      </c>
+      <c r="F94" t="s">
+        <v>366</v>
+      </c>
+      <c r="H94">
+        <v>14.173</v>
+      </c>
+      <c r="I94">
+        <v>4.251</v>
+      </c>
+      <c r="J94">
+        <v>9.922</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>367</v>
+      </c>
+      <c r="C95" t="s">
+        <v>368</v>
+      </c>
+      <c r="D95" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95">
+        <v>300681.3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>369</v>
+      </c>
+      <c r="H95">
+        <v>44.707</v>
+      </c>
+      <c r="I95">
+        <v>14.544</v>
+      </c>
+      <c r="J95">
+        <v>30.163</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" t="s">
+        <v>371</v>
+      </c>
+      <c r="D96" t="s">
+        <v>372</v>
+      </c>
+      <c r="E96">
+        <v>96776</v>
+      </c>
+      <c r="F96" t="s">
+        <v>373</v>
+      </c>
+      <c r="H96">
+        <v>22.54</v>
+      </c>
+      <c r="I96">
+        <v>2.604</v>
+      </c>
+      <c r="J96">
+        <v>19.936</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>374</v>
+      </c>
+      <c r="C97" t="s">
+        <v>375</v>
+      </c>
+      <c r="D97" t="s">
+        <v>376</v>
+      </c>
+      <c r="E97">
+        <v>4204072.84</v>
+      </c>
+      <c r="F97" t="s">
+        <v>377</v>
+      </c>
+      <c r="H97">
+        <v>48.177</v>
+      </c>
+      <c r="J97">
+        <v>48.177</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98">
+        <v>1527156.59</v>
+      </c>
+      <c r="F98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H98">
+        <v>176.68</v>
+      </c>
+      <c r="I98">
+        <v>27.864</v>
+      </c>
+      <c r="J98">
+        <v>148.816</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>382</v>
+      </c>
+      <c r="C99" t="s">
+        <v>383</v>
+      </c>
+      <c r="D99" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99">
+        <v>1057623.88</v>
+      </c>
+      <c r="F99" t="s">
+        <v>385</v>
+      </c>
+      <c r="H99">
+        <v>59.997</v>
+      </c>
+      <c r="I99">
+        <v>5.605</v>
+      </c>
+      <c r="J99">
+        <v>54.392</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" t="s">
+        <v>387</v>
+      </c>
+      <c r="D100" t="s">
+        <v>388</v>
+      </c>
+      <c r="E100">
+        <v>1255049.8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>389</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>390</v>
+      </c>
+      <c r="C101" t="s">
+        <v>391</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101">
+        <v>4489403.5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>392</v>
+      </c>
+      <c r="H101">
+        <v>62.514</v>
+      </c>
+      <c r="I101">
+        <v>36.718</v>
+      </c>
+      <c r="J101">
+        <v>25.796</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" t="s">
+        <v>394</v>
+      </c>
+      <c r="D102" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102">
+        <v>2345932.58</v>
+      </c>
+      <c r="F102" t="s">
+        <v>396</v>
+      </c>
+      <c r="H102">
+        <v>16.921</v>
+      </c>
+      <c r="I102">
+        <v>4.947</v>
+      </c>
+      <c r="J102">
+        <v>11.974</v>
+      </c>
+      <c r="K102">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>397</v>
+      </c>
+      <c r="C103" t="s">
+        <v>398</v>
+      </c>
+      <c r="D103" t="s">
+        <v>399</v>
+      </c>
+      <c r="E103">
+        <v>1497585.88</v>
+      </c>
+      <c r="F103" t="s">
+        <v>400</v>
+      </c>
+      <c r="H103">
+        <v>7.701</v>
+      </c>
+      <c r="I103">
+        <v>0.589</v>
+      </c>
+      <c r="J103">
+        <v>7.112</v>
+      </c>
+      <c r="K103">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>401</v>
+      </c>
+      <c r="C104" t="s">
+        <v>402</v>
+      </c>
+      <c r="D104" t="s">
+        <v>403</v>
+      </c>
+      <c r="E104">
+        <v>1194982.8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>404</v>
+      </c>
+      <c r="H104">
+        <v>3.591</v>
+      </c>
+      <c r="J104">
+        <v>3.591</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105" t="s">
+        <v>406</v>
+      </c>
+      <c r="D105" t="s">
+        <v>407</v>
+      </c>
+      <c r="E105">
+        <v>3449336.84</v>
+      </c>
+      <c r="F105" t="s">
+        <v>408</v>
+      </c>
+      <c r="H105">
+        <v>10.023</v>
+      </c>
+      <c r="J105">
+        <v>10.023</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" t="s">
+        <v>410</v>
+      </c>
+      <c r="D106" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106">
+        <v>583648</v>
+      </c>
+      <c r="F106" t="s">
+        <v>412</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>413</v>
+      </c>
+      <c r="C107" t="s">
+        <v>414</v>
+      </c>
+      <c r="D107" t="s">
+        <v>415</v>
+      </c>
+      <c r="E107">
+        <v>841125.96</v>
+      </c>
+      <c r="F107" t="s">
+        <v>416</v>
+      </c>
+      <c r="H107">
+        <v>14.678</v>
+      </c>
+      <c r="I107">
+        <v>4.144</v>
+      </c>
+      <c r="J107">
+        <v>10.534</v>
+      </c>
+      <c r="K107">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>417</v>
+      </c>
+      <c r="C108" t="s">
+        <v>418</v>
+      </c>
+      <c r="D108" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108">
+        <v>3655413.6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>420</v>
+      </c>
+      <c r="H108">
+        <v>28.39</v>
+      </c>
+      <c r="J108">
+        <v>28.39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" t="s">
+        <v>421</v>
+      </c>
+      <c r="H109">
+        <v>5.321</v>
+      </c>
+      <c r="J109">
+        <v>5.321</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>422</v>
+      </c>
+      <c r="C110" t="s">
+        <v>423</v>
+      </c>
+      <c r="D110" t="s">
+        <v>424</v>
+      </c>
+      <c r="E110">
+        <v>3194902.95</v>
+      </c>
+      <c r="F110" t="s">
+        <v>425</v>
+      </c>
+      <c r="H110">
+        <v>40.038</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>40.038</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>426</v>
+      </c>
+      <c r="C111" t="s">
+        <v>427</v>
+      </c>
+      <c r="D111" t="s">
+        <v>428</v>
+      </c>
+      <c r="E111">
+        <v>1198041.68</v>
+      </c>
+      <c r="F111" t="s">
+        <v>429</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" t="s">
+        <v>432</v>
+      </c>
+      <c r="E112">
+        <v>1675212.55</v>
+      </c>
+      <c r="F112" t="s">
+        <v>433</v>
+      </c>
+      <c r="H112">
+        <v>1.737</v>
+      </c>
+      <c r="J112">
+        <v>1.737</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>434</v>
+      </c>
+      <c r="C113" t="s">
+        <v>435</v>
+      </c>
+      <c r="D113" t="s">
+        <v>436</v>
+      </c>
+      <c r="E113">
+        <v>1194421.72</v>
+      </c>
+      <c r="F113" t="s">
+        <v>437</v>
+      </c>
+      <c r="H113">
+        <v>2.132</v>
+      </c>
+      <c r="J113">
+        <v>2.132</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>438</v>
+      </c>
+      <c r="C114" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" t="s">
+        <v>440</v>
+      </c>
+      <c r="E114">
+        <v>1098764.04</v>
+      </c>
+      <c r="F114" t="s">
+        <v>441</v>
+      </c>
+      <c r="H114">
+        <v>58.731</v>
+      </c>
+      <c r="I114">
+        <v>17.928</v>
+      </c>
+      <c r="J114">
+        <v>40.803</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>442</v>
+      </c>
+      <c r="C115" t="s">
+        <v>443</v>
+      </c>
+      <c r="D115" t="s">
+        <v>444</v>
+      </c>
+      <c r="E115">
+        <v>8598608.94</v>
+      </c>
+      <c r="F115" t="s">
+        <v>445</v>
+      </c>
+      <c r="H115">
+        <v>10.892</v>
+      </c>
+      <c r="I115">
+        <v>0.924</v>
+      </c>
+      <c r="J115">
+        <v>9.968</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" t="s">
+        <v>448</v>
+      </c>
+      <c r="E116">
+        <v>1754833.06</v>
+      </c>
+      <c r="F116" t="s">
+        <v>449</v>
+      </c>
+      <c r="H116">
+        <v>34.382</v>
+      </c>
+      <c r="I116">
+        <v>0.5</v>
+      </c>
+      <c r="J116">
+        <v>33.882</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>450</v>
+      </c>
+      <c r="C117" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117">
+        <v>565746.69</v>
+      </c>
+      <c r="F117" t="s">
+        <v>453</v>
+      </c>
+      <c r="H117">
+        <v>153.248</v>
+      </c>
+      <c r="I117">
+        <v>21.578</v>
+      </c>
+      <c r="J117">
+        <v>131.67</v>
+      </c>
+      <c r="K117">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>454</v>
+      </c>
+      <c r="C118" t="s">
+        <v>455</v>
+      </c>
+      <c r="D118" t="s">
+        <v>456</v>
+      </c>
+      <c r="E118">
+        <v>1886865.3</v>
+      </c>
+      <c r="F118" t="s">
+        <v>457</v>
+      </c>
+      <c r="H118">
+        <v>27.886</v>
+      </c>
+      <c r="I118">
+        <v>8.959</v>
+      </c>
+      <c r="J118">
+        <v>18.927</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>458</v>
+      </c>
+      <c r="C119" t="s">
+        <v>459</v>
+      </c>
+      <c r="D119" t="s">
+        <v>460</v>
+      </c>
+      <c r="E119">
+        <v>1716253.48</v>
+      </c>
+      <c r="F119" t="s">
+        <v>461</v>
+      </c>
+      <c r="H119">
+        <v>28.438</v>
+      </c>
+      <c r="I119">
+        <v>12.384</v>
+      </c>
+      <c r="J119">
+        <v>16.054</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>462</v>
+      </c>
+      <c r="C120" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" t="s">
+        <v>464</v>
+      </c>
+      <c r="E120">
+        <v>1744576.84</v>
+      </c>
+      <c r="F120" t="s">
+        <v>465</v>
+      </c>
+      <c r="H120">
+        <v>33.072</v>
+      </c>
+      <c r="I120">
+        <v>10.17</v>
+      </c>
+      <c r="J120">
+        <v>22.902</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>466</v>
+      </c>
+      <c r="C121" t="s">
+        <v>467</v>
+      </c>
+      <c r="D121" t="s">
+        <v>468</v>
+      </c>
+      <c r="E121">
+        <v>1195031.57</v>
+      </c>
+      <c r="F121" t="s">
+        <v>469</v>
+      </c>
+      <c r="H121">
+        <v>3.683</v>
+      </c>
+      <c r="J121">
+        <v>3.683</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>470</v>
+      </c>
+      <c r="C122" t="s">
+        <v>471</v>
+      </c>
+      <c r="D122" t="s">
+        <v>472</v>
+      </c>
+      <c r="E122">
+        <v>2333263.86</v>
+      </c>
+      <c r="F122" t="s">
+        <v>473</v>
+      </c>
+      <c r="H122">
+        <v>17.698</v>
+      </c>
+      <c r="I122">
+        <v>7.277</v>
+      </c>
+      <c r="J122">
+        <v>10.421</v>
+      </c>
+      <c r="K122">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>474</v>
+      </c>
+      <c r="C123" t="s">
+        <v>475</v>
+      </c>
+      <c r="D123" t="s">
+        <v>476</v>
+      </c>
+      <c r="E123">
+        <v>3050032.52</v>
+      </c>
+      <c r="F123" t="s">
+        <v>477</v>
+      </c>
+      <c r="H123">
+        <v>15.984</v>
+      </c>
+      <c r="I123">
+        <v>11.095</v>
+      </c>
+      <c r="J123">
+        <v>4.889</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>478</v>
+      </c>
+      <c r="C124" t="s">
+        <v>479</v>
+      </c>
+      <c r="D124" t="s">
+        <v>480</v>
+      </c>
+      <c r="E124">
+        <v>2607209.85</v>
+      </c>
+      <c r="F124" t="s">
+        <v>481</v>
+      </c>
+      <c r="H124">
+        <v>31.595</v>
+      </c>
+      <c r="J124">
+        <v>31.595</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>482</v>
+      </c>
+      <c r="C125" t="s">
+        <v>483</v>
+      </c>
+      <c r="D125" t="s">
+        <v>484</v>
+      </c>
+      <c r="E125">
+        <v>1288196.01</v>
+      </c>
+      <c r="F125" t="s">
+        <v>485</v>
+      </c>
+      <c r="H125">
+        <v>135.12</v>
+      </c>
+      <c r="I125">
+        <v>23.187</v>
+      </c>
+      <c r="J125">
+        <v>111.933</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>486</v>
+      </c>
+      <c r="C126" t="s">
+        <v>487</v>
+      </c>
+      <c r="D126" t="s">
+        <v>488</v>
+      </c>
+      <c r="E126">
+        <v>1797459.2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>489</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>490</v>
+      </c>
+      <c r="C127" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" t="s">
+        <v>492</v>
+      </c>
+      <c r="E127">
+        <v>920220</v>
+      </c>
+      <c r="F127" t="s">
+        <v>493</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>494</v>
+      </c>
+      <c r="C128" t="s">
+        <v>495</v>
+      </c>
+      <c r="D128" t="s">
+        <v>496</v>
+      </c>
+      <c r="E128">
+        <v>1161927.68</v>
+      </c>
+      <c r="F128" t="s">
+        <v>497</v>
+      </c>
+      <c r="H128">
+        <v>20.986</v>
+      </c>
+      <c r="I128">
+        <v>6.544</v>
+      </c>
+      <c r="J128">
+        <v>14.442</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>498</v>
+      </c>
+      <c r="C129" t="s">
+        <v>499</v>
+      </c>
+      <c r="D129" t="s">
+        <v>500</v>
+      </c>
+      <c r="E129">
+        <v>1750882.26</v>
+      </c>
+      <c r="F129" t="s">
+        <v>501</v>
+      </c>
+      <c r="H129">
+        <v>8.256</v>
+      </c>
+      <c r="I129">
+        <v>7.995</v>
+      </c>
+      <c r="J129">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>502</v>
+      </c>
+      <c r="C130" t="s">
+        <v>503</v>
+      </c>
+      <c r="D130" t="s">
+        <v>504</v>
+      </c>
+      <c r="E130">
+        <v>1197272.12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>505</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>506</v>
+      </c>
+      <c r="C131" t="s">
+        <v>507</v>
+      </c>
+      <c r="D131" t="s">
+        <v>508</v>
+      </c>
+      <c r="E131">
+        <v>1188114.84</v>
+      </c>
+      <c r="F131" t="s">
+        <v>509</v>
+      </c>
+      <c r="H131">
+        <v>9.818</v>
+      </c>
+      <c r="J131">
+        <v>9.818</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>510</v>
+      </c>
+      <c r="C132" t="s">
+        <v>511</v>
+      </c>
+      <c r="D132" t="s">
+        <v>512</v>
+      </c>
+      <c r="E132">
+        <v>1186880.96</v>
+      </c>
+      <c r="F132" t="s">
+        <v>513</v>
+      </c>
+      <c r="H132">
+        <v>12.121</v>
+      </c>
+      <c r="J132">
+        <v>12.121</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>514</v>
+      </c>
+      <c r="C133" t="s">
+        <v>515</v>
+      </c>
+      <c r="D133" t="s">
+        <v>516</v>
+      </c>
+      <c r="E133">
+        <v>987023.3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>517</v>
+      </c>
+      <c r="H133">
+        <v>231.99</v>
+      </c>
+      <c r="I133">
+        <v>56.455</v>
+      </c>
+      <c r="J133">
+        <v>175.535</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>518</v>
+      </c>
+      <c r="C134" t="s">
+        <v>519</v>
+      </c>
+      <c r="D134" t="s">
+        <v>520</v>
+      </c>
+      <c r="E134">
+        <v>796511.4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>521</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>522</v>
+      </c>
+      <c r="C135" t="s">
+        <v>523</v>
+      </c>
+      <c r="D135" t="s">
+        <v>524</v>
+      </c>
+      <c r="E135">
+        <v>1372547.82</v>
+      </c>
+      <c r="F135" t="s">
+        <v>525</v>
+      </c>
+      <c r="H135">
+        <v>12.245</v>
+      </c>
+      <c r="J135">
+        <v>12.245</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>526</v>
+      </c>
+      <c r="C136" t="s">
+        <v>527</v>
+      </c>
+      <c r="D136" t="s">
+        <v>528</v>
+      </c>
+      <c r="E136">
+        <v>1791255.96</v>
+      </c>
+      <c r="F136" t="s">
+        <v>529</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>530</v>
+      </c>
+      <c r="C137" t="s">
+        <v>531</v>
+      </c>
+      <c r="D137" t="s">
+        <v>532</v>
+      </c>
+      <c r="E137">
+        <v>1183240.96</v>
+      </c>
+      <c r="F137" t="s">
+        <v>533</v>
+      </c>
+      <c r="H137">
+        <v>7.854</v>
+      </c>
+      <c r="I137">
+        <v>2.143</v>
+      </c>
+      <c r="J137">
+        <v>5.711</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>534</v>
+      </c>
+      <c r="C138" t="s">
+        <v>535</v>
+      </c>
+      <c r="D138" t="s">
+        <v>536</v>
+      </c>
+      <c r="E138">
+        <v>1159527.12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>537</v>
+      </c>
+      <c r="H138">
+        <v>5.59</v>
+      </c>
+      <c r="I138">
+        <v>1.599</v>
+      </c>
+      <c r="J138">
+        <v>3.991</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>538</v>
+      </c>
+      <c r="C139" t="s">
+        <v>539</v>
+      </c>
+      <c r="D139" t="s">
+        <v>540</v>
+      </c>
+      <c r="E139">
+        <v>1166486.48</v>
+      </c>
+      <c r="F139" t="s">
+        <v>541</v>
+      </c>
+      <c r="H139">
+        <v>17.935</v>
+      </c>
+      <c r="J139">
+        <v>17.935</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>542</v>
+      </c>
+      <c r="C140" t="s">
+        <v>543</v>
+      </c>
+      <c r="D140" t="s">
+        <v>544</v>
+      </c>
+      <c r="E140">
+        <v>889450.16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>545</v>
+      </c>
+      <c r="H140">
+        <v>12.221</v>
+      </c>
+      <c r="J140">
+        <v>12.221</v>
+      </c>
+      <c r="K140">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>546</v>
+      </c>
+      <c r="C141" t="s">
+        <v>547</v>
+      </c>
+      <c r="D141" t="s">
+        <v>548</v>
+      </c>
+      <c r="E141">
+        <v>1348465.14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>549</v>
+      </c>
+      <c r="H141">
+        <v>32.581</v>
+      </c>
+      <c r="I141">
+        <v>7.385</v>
+      </c>
+      <c r="J141">
+        <v>25.196</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>550</v>
+      </c>
+      <c r="C142" t="s">
+        <v>551</v>
+      </c>
+      <c r="D142" t="s">
+        <v>552</v>
+      </c>
+      <c r="E142">
+        <v>1197533.48</v>
+      </c>
+      <c r="F142" t="s">
+        <v>553</v>
+      </c>
+      <c r="H142">
+        <v>0.658</v>
+      </c>
+      <c r="I142">
+        <v>0.247</v>
+      </c>
+      <c r="J142">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C143" t="s">
+        <v>555</v>
+      </c>
+      <c r="D143" t="s">
+        <v>556</v>
+      </c>
+      <c r="E143">
+        <v>1348626.94</v>
+      </c>
+      <c r="F143" t="s">
+        <v>557</v>
+      </c>
+      <c r="H143">
+        <v>1.152</v>
+      </c>
+      <c r="J143">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>558</v>
+      </c>
+      <c r="C144" t="s">
+        <v>559</v>
+      </c>
+      <c r="D144" t="s">
+        <v>560</v>
+      </c>
+      <c r="E144">
+        <v>946558.58</v>
+      </c>
+      <c r="F144" t="s">
+        <v>561</v>
+      </c>
+      <c r="H144">
+        <v>68.855</v>
+      </c>
+      <c r="I144">
+        <v>16.599</v>
+      </c>
+      <c r="J144">
+        <v>52.256</v>
+      </c>
+      <c r="K144">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>562</v>
+      </c>
+      <c r="C145" t="s">
+        <v>563</v>
+      </c>
+      <c r="D145" t="s">
+        <v>564</v>
+      </c>
+      <c r="E145">
+        <v>1741200</v>
+      </c>
+      <c r="F145" t="s">
+        <v>565</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>566</v>
+      </c>
+      <c r="C146" t="s">
+        <v>567</v>
+      </c>
+      <c r="D146" t="s">
+        <v>568</v>
+      </c>
+      <c r="E146">
+        <v>1519177.53</v>
+      </c>
+      <c r="F146" t="s">
+        <v>569</v>
+      </c>
+      <c r="H146">
+        <v>39.027</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>39.027</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>570</v>
+      </c>
+      <c r="C147" t="s">
+        <v>571</v>
+      </c>
+      <c r="D147" t="s">
+        <v>572</v>
+      </c>
+      <c r="E147">
+        <v>1777169.96</v>
+      </c>
+      <c r="F147" t="s">
+        <v>573</v>
+      </c>
+      <c r="H147">
+        <v>26.665</v>
+      </c>
+      <c r="I147">
+        <v>5.068</v>
+      </c>
+      <c r="J147">
+        <v>21.597</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>574</v>
+      </c>
+      <c r="C148" t="s">
+        <v>575</v>
+      </c>
+      <c r="D148" t="s">
+        <v>576</v>
+      </c>
+      <c r="E148">
+        <v>3946337.2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>577</v>
+      </c>
+      <c r="H148">
+        <v>47.317</v>
+      </c>
+      <c r="I148">
+        <v>13.444</v>
+      </c>
+      <c r="J148">
+        <v>33.873</v>
+      </c>
+      <c r="K148">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>578</v>
+      </c>
+      <c r="C149" t="s">
+        <v>579</v>
+      </c>
+      <c r="D149" t="s">
+        <v>580</v>
+      </c>
+      <c r="E149">
+        <v>5718394.76</v>
+      </c>
+      <c r="F149" t="s">
+        <v>581</v>
+      </c>
+      <c r="H149">
+        <v>20.491</v>
+      </c>
+      <c r="J149">
+        <v>20.491</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>582</v>
+      </c>
+      <c r="C150" t="s">
+        <v>583</v>
+      </c>
+      <c r="D150" t="s">
+        <v>584</v>
+      </c>
+      <c r="E150">
+        <v>1064281.85</v>
+      </c>
+      <c r="F150" t="s">
+        <v>585</v>
+      </c>
+      <c r="H150">
+        <v>33.533</v>
+      </c>
+      <c r="I150">
+        <v>12.542</v>
+      </c>
+      <c r="J150">
+        <v>20.991</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>586</v>
+      </c>
+      <c r="C151" t="s">
+        <v>587</v>
+      </c>
+      <c r="D151" t="s">
+        <v>588</v>
+      </c>
+      <c r="E151">
+        <v>340959.5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>589</v>
+      </c>
+      <c r="H151">
+        <v>3.008</v>
+      </c>
+      <c r="J151">
+        <v>3.008</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>590</v>
+      </c>
+      <c r="C152" t="s">
+        <v>591</v>
+      </c>
+      <c r="D152" t="s">
+        <v>592</v>
+      </c>
+      <c r="E152">
+        <v>1704469.77</v>
+      </c>
+      <c r="F152" t="s">
+        <v>593</v>
+      </c>
+      <c r="H152">
+        <v>13.552</v>
+      </c>
+      <c r="I152">
+        <v>4.499</v>
+      </c>
+      <c r="J152">
+        <v>9.053</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>594</v>
+      </c>
+      <c r="C153" t="s">
+        <v>595</v>
+      </c>
+      <c r="D153" t="s">
+        <v>596</v>
+      </c>
+      <c r="E153">
+        <v>1160173.52</v>
+      </c>
+      <c r="F153" t="s">
+        <v>597</v>
+      </c>
+      <c r="H153">
+        <v>17.461</v>
+      </c>
+      <c r="I153">
+        <v>4.152</v>
+      </c>
+      <c r="J153">
+        <v>13.309</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>598</v>
+      </c>
+      <c r="C154" t="s">
+        <v>599</v>
+      </c>
+      <c r="D154" t="s">
+        <v>600</v>
+      </c>
+      <c r="E154">
+        <v>1505268.14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>601</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>602</v>
+      </c>
+      <c r="C155" t="s">
+        <v>603</v>
+      </c>
+      <c r="D155" t="s">
+        <v>604</v>
+      </c>
+      <c r="E155">
+        <v>998713.8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>605</v>
+      </c>
+      <c r="H155">
+        <v>0.286</v>
+      </c>
+      <c r="J155">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>606</v>
+      </c>
+      <c r="C156" t="s">
+        <v>607</v>
+      </c>
+      <c r="D156" t="s">
+        <v>608</v>
+      </c>
+      <c r="E156">
+        <v>1350621.96</v>
+      </c>
+      <c r="F156" t="s">
+        <v>609</v>
+      </c>
+      <c r="H156">
+        <v>8.858</v>
+      </c>
+      <c r="J156">
+        <v>8.858</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>610</v>
+      </c>
+      <c r="C157" t="s">
+        <v>611</v>
+      </c>
+      <c r="D157" t="s">
+        <v>612</v>
+      </c>
+      <c r="E157">
+        <v>160137.12</v>
+      </c>
+      <c r="F157" t="s">
+        <v>613</v>
+      </c>
+      <c r="H157">
+        <v>92.624</v>
+      </c>
+      <c r="I157">
+        <v>14.768</v>
+      </c>
+      <c r="J157">
+        <v>77.856</v>
+      </c>
+      <c r="K157">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>614</v>
+      </c>
+      <c r="C158" t="s">
+        <v>615</v>
+      </c>
+      <c r="D158" t="s">
+        <v>616</v>
+      </c>
+      <c r="E158">
+        <v>2329389.48</v>
+      </c>
+      <c r="F158" t="s">
+        <v>617</v>
+      </c>
+      <c r="H158">
+        <v>39.394</v>
+      </c>
+      <c r="I158">
+        <v>5.853</v>
+      </c>
+      <c r="J158">
+        <v>33.541</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>618</v>
+      </c>
+      <c r="C159" t="s">
+        <v>619</v>
+      </c>
+      <c r="D159" t="s">
+        <v>620</v>
+      </c>
+      <c r="E159">
+        <v>1443129</v>
+      </c>
+      <c r="F159" t="s">
+        <v>621</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>618</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" t="s">
+        <v>24</v>
+      </c>
+      <c r="F160" t="s">
+        <v>622</v>
+      </c>
+      <c r="H160">
+        <v>0.889</v>
+      </c>
+      <c r="J160">
+        <v>0.889</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>623</v>
+      </c>
+      <c r="C161" t="s">
+        <v>624</v>
+      </c>
+      <c r="D161" t="s">
+        <v>625</v>
+      </c>
+      <c r="E161">
+        <v>4352951.28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>626</v>
+      </c>
+      <c r="H161">
+        <v>12.689</v>
+      </c>
+      <c r="J161">
+        <v>12.689</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>627</v>
+      </c>
+      <c r="C162" t="s">
+        <v>628</v>
+      </c>
+      <c r="D162" t="s">
+        <v>629</v>
+      </c>
+      <c r="E162">
+        <v>2217207.2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>630</v>
+      </c>
+      <c r="H162">
+        <v>66.625</v>
+      </c>
+      <c r="I162">
+        <v>10.152</v>
+      </c>
+      <c r="J162">
+        <v>56.473</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>631</v>
+      </c>
+      <c r="C163" t="s">
+        <v>632</v>
+      </c>
+      <c r="D163" t="s">
+        <v>633</v>
+      </c>
+      <c r="E163">
+        <v>1167797.08</v>
+      </c>
+      <c r="F163" t="s">
+        <v>634</v>
+      </c>
+      <c r="H163">
+        <v>20.553</v>
+      </c>
+      <c r="I163">
+        <v>11.26</v>
+      </c>
+      <c r="J163">
+        <v>9.293</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>635</v>
+      </c>
+      <c r="C164" t="s">
+        <v>636</v>
+      </c>
+      <c r="D164" t="s">
+        <v>637</v>
+      </c>
+      <c r="E164">
+        <v>1790545.52</v>
+      </c>
+      <c r="F164" t="s">
+        <v>638</v>
+      </c>
+      <c r="H164">
+        <v>0.53</v>
+      </c>
+      <c r="J164">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>639</v>
+      </c>
+      <c r="C165" t="s">
+        <v>640</v>
+      </c>
+      <c r="D165" t="s">
+        <v>641</v>
+      </c>
+      <c r="E165">
+        <v>604428.68</v>
+      </c>
+      <c r="F165" t="s">
+        <v>642</v>
+      </c>
+      <c r="H165">
+        <v>39.119</v>
+      </c>
+      <c r="I165">
+        <v>2.569</v>
+      </c>
+      <c r="J165">
+        <v>36.55</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>643</v>
+      </c>
+      <c r="C166" t="s">
+        <v>644</v>
+      </c>
+      <c r="D166" t="s">
+        <v>645</v>
+      </c>
+      <c r="E166">
+        <v>1891670.82</v>
+      </c>
+      <c r="F166" t="s">
+        <v>646</v>
+      </c>
+      <c r="H166">
+        <v>84.122</v>
+      </c>
+      <c r="I166">
+        <v>17.517</v>
+      </c>
+      <c r="J166">
+        <v>66.605</v>
+      </c>
+      <c r="K166">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>647</v>
+      </c>
+      <c r="C167" t="s">
+        <v>648</v>
+      </c>
+      <c r="D167" t="s">
+        <v>649</v>
+      </c>
+      <c r="E167">
+        <v>1187996.8</v>
+      </c>
+      <c r="F167" t="s">
+        <v>650</v>
+      </c>
+      <c r="H167">
+        <v>8.327</v>
+      </c>
+      <c r="I167">
+        <v>1.016</v>
+      </c>
+      <c r="J167">
+        <v>7.311</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>651</v>
+      </c>
+      <c r="C168" t="s">
+        <v>652</v>
+      </c>
+      <c r="D168" t="s">
+        <v>653</v>
+      </c>
+      <c r="E168">
+        <v>2964274.94</v>
+      </c>
+      <c r="F168" t="s">
+        <v>654</v>
+      </c>
+      <c r="H168">
+        <v>47.125</v>
+      </c>
+      <c r="I168">
+        <v>17.638</v>
+      </c>
+      <c r="J168">
+        <v>29.487</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>655</v>
+      </c>
+      <c r="C169" t="s">
+        <v>656</v>
+      </c>
+      <c r="D169" t="s">
+        <v>657</v>
+      </c>
+      <c r="E169">
+        <v>1755544.16</v>
+      </c>
+      <c r="F169" t="s">
+        <v>658</v>
+      </c>
+      <c r="H169">
+        <v>86.41</v>
+      </c>
+      <c r="I169">
+        <v>10.924</v>
+      </c>
+      <c r="J169">
+        <v>75.486</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>659</v>
+      </c>
+      <c r="C170" t="s">
+        <v>660</v>
+      </c>
+      <c r="D170" t="s">
+        <v>661</v>
+      </c>
+      <c r="E170">
+        <v>1195592</v>
+      </c>
+      <c r="F170" t="s">
+        <v>662</v>
+      </c>
+      <c r="H170">
+        <v>0.564</v>
+      </c>
+      <c r="J170">
+        <v>0.564</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>663</v>
+      </c>
+      <c r="C171" t="s">
+        <v>664</v>
+      </c>
+      <c r="D171" t="s">
+        <v>665</v>
+      </c>
+      <c r="E171">
+        <v>1216744.08</v>
+      </c>
+      <c r="F171" t="s">
+        <v>666</v>
+      </c>
+      <c r="H171">
+        <v>10.731</v>
+      </c>
+      <c r="I171">
+        <v>0.917</v>
+      </c>
+      <c r="J171">
+        <v>9.814</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>667</v>
+      </c>
+      <c r="C172" t="s">
+        <v>668</v>
+      </c>
+      <c r="D172" t="s">
+        <v>669</v>
+      </c>
+      <c r="E172">
+        <v>1116399.28</v>
+      </c>
+      <c r="F172" t="s">
+        <v>670</v>
+      </c>
+      <c r="H172">
+        <v>55.032</v>
+      </c>
+      <c r="I172">
+        <v>41.155</v>
+      </c>
+      <c r="J172">
+        <v>13.877</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>671</v>
+      </c>
+      <c r="C173" t="s">
+        <v>672</v>
+      </c>
+      <c r="D173" t="s">
+        <v>673</v>
+      </c>
+      <c r="E173">
+        <v>1134492.41</v>
+      </c>
+      <c r="F173" t="s">
+        <v>674</v>
+      </c>
+      <c r="H173">
+        <v>43.837</v>
+      </c>
+      <c r="I173">
+        <v>8.228</v>
+      </c>
+      <c r="J173">
+        <v>35.609</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>675</v>
+      </c>
+      <c r="C174" t="s">
+        <v>676</v>
+      </c>
+      <c r="D174" t="s">
+        <v>677</v>
+      </c>
+      <c r="E174">
+        <v>1860778.68</v>
+      </c>
+      <c r="F174" t="s">
+        <v>678</v>
+      </c>
+      <c r="H174">
+        <v>1.218</v>
+      </c>
+      <c r="J174">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>679</v>
+      </c>
+      <c r="C175" t="s">
+        <v>680</v>
+      </c>
+      <c r="D175" t="s">
+        <v>681</v>
+      </c>
+      <c r="E175">
+        <v>1181895.44</v>
+      </c>
+      <c r="F175" t="s">
+        <v>682</v>
+      </c>
+      <c r="H175">
+        <v>3.427</v>
+      </c>
+      <c r="J175">
+        <v>3.427</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>683</v>
+      </c>
+      <c r="C176" t="s">
+        <v>684</v>
+      </c>
+      <c r="D176" t="s">
+        <v>685</v>
+      </c>
+      <c r="E176">
+        <v>1683934.96</v>
+      </c>
+      <c r="F176" t="s">
+        <v>686</v>
+      </c>
+      <c r="H176">
+        <v>95.16</v>
+      </c>
+      <c r="J176">
+        <v>95.16</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>687</v>
+      </c>
+      <c r="C177" t="s">
+        <v>688</v>
+      </c>
+      <c r="D177" t="s">
+        <v>689</v>
+      </c>
+      <c r="E177">
+        <v>2681807.35</v>
+      </c>
+      <c r="F177" t="s">
+        <v>690</v>
+      </c>
+      <c r="H177">
+        <v>21.947</v>
+      </c>
+      <c r="I177">
+        <v>11.399</v>
+      </c>
+      <c r="J177">
+        <v>10.548</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>691</v>
+      </c>
+      <c r="C178" t="s">
+        <v>692</v>
+      </c>
+      <c r="D178" t="s">
+        <v>693</v>
+      </c>
+      <c r="E178">
+        <v>2956849.01</v>
+      </c>
+      <c r="F178" t="s">
+        <v>694</v>
+      </c>
+      <c r="H178">
+        <v>128.074</v>
+      </c>
+      <c r="I178">
+        <v>17.705</v>
+      </c>
+      <c r="J178">
+        <v>110.369</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>695</v>
+      </c>
+      <c r="C179" t="s">
+        <v>696</v>
+      </c>
+      <c r="D179" t="s">
+        <v>697</v>
+      </c>
+      <c r="E179">
+        <v>1173638.4</v>
+      </c>
+      <c r="F179" t="s">
+        <v>698</v>
+      </c>
+      <c r="H179">
+        <v>18.942</v>
+      </c>
+      <c r="J179">
+        <v>18.942</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>699</v>
+      </c>
+      <c r="C180" t="s">
+        <v>700</v>
+      </c>
+      <c r="D180" t="s">
+        <v>701</v>
+      </c>
+      <c r="E180">
+        <v>1152061.68</v>
+      </c>
+      <c r="F180" t="s">
+        <v>702</v>
+      </c>
+      <c r="H180">
+        <v>14.072</v>
+      </c>
+      <c r="I180">
+        <v>4.796</v>
+      </c>
+      <c r="J180">
+        <v>9.276</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>703</v>
+      </c>
+      <c r="C181" t="s">
+        <v>704</v>
+      </c>
+      <c r="D181" t="s">
+        <v>705</v>
+      </c>
+      <c r="E181">
+        <v>1150040.1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>706</v>
+      </c>
+      <c r="H181">
+        <v>22.779</v>
+      </c>
+      <c r="I181">
+        <v>18.69</v>
+      </c>
+      <c r="J181">
+        <v>4.089</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>707</v>
+      </c>
+      <c r="C182" t="s">
+        <v>708</v>
+      </c>
+      <c r="D182" t="s">
+        <v>709</v>
+      </c>
+      <c r="E182">
+        <v>991436</v>
+      </c>
+      <c r="F182" t="s">
+        <v>710</v>
+      </c>
+      <c r="H182">
+        <v>10.948</v>
+      </c>
+      <c r="I182">
+        <v>5.635</v>
+      </c>
+      <c r="J182">
+        <v>5.313</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>711</v>
+      </c>
+      <c r="C183" t="s">
+        <v>712</v>
+      </c>
+      <c r="D183" t="s">
+        <v>713</v>
+      </c>
+      <c r="E183">
+        <v>1741544.91</v>
+      </c>
+      <c r="F183" t="s">
+        <v>714</v>
+      </c>
+      <c r="H183">
+        <v>26.113</v>
+      </c>
+      <c r="I183">
+        <v>8.077</v>
+      </c>
+      <c r="J183">
+        <v>18.036</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>715</v>
+      </c>
+      <c r="C184" t="s">
+        <v>716</v>
+      </c>
+      <c r="D184" t="s">
+        <v>717</v>
+      </c>
+      <c r="E184">
+        <v>1218487.04</v>
+      </c>
+      <c r="F184" t="s">
+        <v>718</v>
+      </c>
+      <c r="H184">
+        <v>15.534</v>
+      </c>
+      <c r="I184">
+        <v>3.252</v>
+      </c>
+      <c r="J184">
+        <v>12.282</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>719</v>
+      </c>
+      <c r="C185" t="s">
+        <v>720</v>
+      </c>
+      <c r="D185" t="s">
+        <v>721</v>
+      </c>
+      <c r="E185">
+        <v>112298.47</v>
+      </c>
+      <c r="F185" t="s">
+        <v>722</v>
+      </c>
+      <c r="H185">
+        <v>371.351</v>
+      </c>
+      <c r="I185">
+        <v>94.424</v>
+      </c>
+      <c r="J185">
+        <v>276.927</v>
+      </c>
+      <c r="K185">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>723</v>
+      </c>
+      <c r="C186" t="s">
+        <v>724</v>
+      </c>
+      <c r="D186" t="s">
+        <v>725</v>
+      </c>
+      <c r="E186">
+        <v>1157956.35</v>
+      </c>
+      <c r="F186" t="s">
+        <v>726</v>
+      </c>
+      <c r="H186">
+        <v>92.911</v>
+      </c>
+      <c r="I186">
+        <v>22.742</v>
+      </c>
+      <c r="J186">
+        <v>70.169</v>
+      </c>
+      <c r="K186">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>727</v>
+      </c>
+      <c r="C187" t="s">
+        <v>728</v>
+      </c>
+      <c r="D187" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187">
+        <v>1042782.2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>729</v>
+      </c>
+      <c r="H187">
+        <v>6.615</v>
+      </c>
+      <c r="I187">
+        <v>2.598</v>
+      </c>
+      <c r="J187">
+        <v>4.017</v>
+      </c>
+      <c r="K187">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>730</v>
+      </c>
+      <c r="C188" t="s">
+        <v>731</v>
+      </c>
+      <c r="D188" t="s">
+        <v>732</v>
+      </c>
+      <c r="E188">
+        <v>1130491</v>
+      </c>
+      <c r="F188" t="s">
+        <v>733</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>734</v>
+      </c>
+      <c r="C189" t="s">
+        <v>735</v>
+      </c>
+      <c r="D189" t="s">
+        <v>736</v>
+      </c>
+      <c r="E189">
+        <v>199987.5</v>
+      </c>
+      <c r="F189" t="s">
+        <v>737</v>
+      </c>
+      <c r="H189">
+        <v>9.136</v>
+      </c>
+      <c r="I189">
+        <v>1.98</v>
+      </c>
+      <c r="J189">
+        <v>7.156</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>738</v>
+      </c>
+      <c r="C190" t="s">
+        <v>739</v>
+      </c>
+      <c r="D190" t="s">
+        <v>740</v>
+      </c>
+      <c r="E190">
+        <v>1342159.78</v>
+      </c>
+      <c r="F190" t="s">
+        <v>741</v>
+      </c>
+      <c r="H190">
+        <v>22.293</v>
+      </c>
+      <c r="I190">
+        <v>4.765</v>
+      </c>
+      <c r="J190">
+        <v>17.528</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>742</v>
+      </c>
+      <c r="C191" t="s">
+        <v>743</v>
+      </c>
+      <c r="D191" t="s">
+        <v>744</v>
+      </c>
+      <c r="E191">
+        <v>889632.43</v>
+      </c>
+      <c r="F191" t="s">
+        <v>745</v>
+      </c>
+      <c r="H191">
+        <v>22.102</v>
+      </c>
+      <c r="I191">
+        <v>4.677</v>
+      </c>
+      <c r="J191">
+        <v>17.425</v>
+      </c>
+      <c r="K191">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>746</v>
+      </c>
+      <c r="C192" t="s">
+        <v>747</v>
+      </c>
+      <c r="D192" t="s">
+        <v>748</v>
+      </c>
+      <c r="E192">
+        <v>1151103.36</v>
+      </c>
+      <c r="F192" t="s">
+        <v>749</v>
+      </c>
+      <c r="H192">
+        <v>26.852</v>
+      </c>
+      <c r="I192">
+        <v>15.11</v>
+      </c>
+      <c r="J192">
+        <v>11.742</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>750</v>
+      </c>
+      <c r="C193" t="s">
+        <v>751</v>
+      </c>
+      <c r="D193" t="s">
+        <v>752</v>
+      </c>
+      <c r="E193">
+        <v>1090897.23</v>
+      </c>
+      <c r="F193" t="s">
+        <v>753</v>
+      </c>
+      <c r="H193">
+        <v>20.68</v>
+      </c>
+      <c r="I193">
+        <v>6.452</v>
+      </c>
+      <c r="J193">
+        <v>14.228</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>754</v>
+      </c>
+      <c r="C194" t="s">
+        <v>755</v>
+      </c>
+      <c r="D194" t="s">
+        <v>756</v>
+      </c>
+      <c r="E194">
+        <v>2410039.83</v>
+      </c>
+      <c r="F194" t="s">
+        <v>757</v>
+      </c>
+      <c r="H194">
+        <v>67.677</v>
+      </c>
+      <c r="I194">
+        <v>6.606</v>
+      </c>
+      <c r="J194">
+        <v>61.071</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>758</v>
+      </c>
+      <c r="C195" t="s">
+        <v>759</v>
+      </c>
+      <c r="D195" t="s">
+        <v>760</v>
+      </c>
+      <c r="E195">
+        <v>1191527.04</v>
+      </c>
+      <c r="F195" t="s">
+        <v>761</v>
+      </c>
+      <c r="H195">
+        <v>1.031</v>
+      </c>
+      <c r="J195">
+        <v>1.031</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>762</v>
+      </c>
+      <c r="C196" t="s">
+        <v>763</v>
+      </c>
+      <c r="D196" t="s">
+        <v>764</v>
+      </c>
+      <c r="E196">
+        <v>1022701.76</v>
+      </c>
+      <c r="F196" t="s">
+        <v>765</v>
+      </c>
+      <c r="H196">
+        <v>58.23</v>
+      </c>
+      <c r="I196">
+        <v>5.357</v>
+      </c>
+      <c r="J196">
+        <v>52.873</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>766</v>
+      </c>
+      <c r="C197" t="s">
+        <v>767</v>
+      </c>
+      <c r="D197" t="s">
+        <v>768</v>
+      </c>
+      <c r="E197">
+        <v>1189092.52</v>
+      </c>
+      <c r="F197" t="s">
+        <v>769</v>
+      </c>
+      <c r="H197">
+        <v>5.953</v>
+      </c>
+      <c r="I197">
+        <v>2.516</v>
+      </c>
+      <c r="J197">
+        <v>3.437</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>770</v>
+      </c>
+      <c r="C198" t="s">
+        <v>771</v>
+      </c>
+      <c r="D198" t="s">
+        <v>772</v>
+      </c>
+      <c r="E198">
+        <v>1178183.16</v>
+      </c>
+      <c r="F198" t="s">
+        <v>773</v>
+      </c>
+      <c r="H198">
+        <v>10.569</v>
+      </c>
+      <c r="J198">
+        <v>10.569</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>774</v>
+      </c>
+      <c r="C199" t="s">
+        <v>775</v>
+      </c>
+      <c r="D199" t="s">
+        <v>776</v>
+      </c>
+      <c r="E199">
+        <v>866878.91</v>
+      </c>
+      <c r="F199" t="s">
+        <v>777</v>
+      </c>
+      <c r="H199">
+        <v>42.783</v>
+      </c>
+      <c r="I199">
+        <v>5.558</v>
+      </c>
+      <c r="J199">
+        <v>37.225</v>
+      </c>
+      <c r="K199">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>778</v>
+      </c>
+      <c r="C200" t="s">
+        <v>779</v>
+      </c>
+      <c r="D200" t="s">
+        <v>780</v>
+      </c>
+      <c r="E200">
+        <v>1151915.25</v>
+      </c>
+      <c r="F200" t="s">
+        <v>781</v>
+      </c>
+      <c r="H200">
+        <v>27.959</v>
+      </c>
+      <c r="I200">
+        <v>4.043</v>
+      </c>
+      <c r="J200">
+        <v>23.916</v>
       </c>
     </row>
   </sheetData>
